--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model5_dGs.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model5_dGs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="227">
   <si>
     <t>General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -855,13 +855,13 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="58.7651821862348"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="59.2348178137652"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2588,10 +2588,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -2671,63 +2671,63 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0.99</v>
+        <v>0.928124943041768</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1.01</v>
+        <v>1.07187505695823</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.928124943041768</v>
+        <v>0.99</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1.07187505695823</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.99</v>
+        <v>0.980758075213057</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1.01</v>
+        <v>1.01924192478694</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.980758075213057</v>
+        <v>0.99</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1.01924192478694</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -2741,35 +2741,35 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0.99</v>
+        <v>0.850553653712464</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1.01</v>
+        <v>1.14944634628754</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.850553653712464</v>
+        <v>0.99</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1.14944634628754</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -2797,77 +2797,77 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0.99</v>
+        <v>0.998343913039016</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1.01</v>
+        <v>1.00165608696098</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0.998343913039016</v>
+        <v>0.925834010503215</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1.00165608696098</v>
+        <v>1.07416598949679</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0.925834010503215</v>
+        <v>0.914831185724609</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1.07416598949679</v>
+        <v>1.08516881427539</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0.914831185724609</v>
+        <v>0.889197992439507</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1.08516881427539</v>
+        <v>1.11080200756049</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.889197992439507</v>
+        <v>0.99</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1.11080200756049</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.99</v>
@@ -2881,7 +2881,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.99</v>
@@ -2895,77 +2895,77 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0.99</v>
+        <v>0.912928600623706</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>1.01</v>
+        <v>1.08707139937629</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0.99</v>
+        <v>0.885298914584682</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>1.01</v>
+        <v>1.11470108541532</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0.912928600623706</v>
+        <v>0.99</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>1.08707139937629</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0.885298914584682</v>
+        <v>0.99</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>1.11470108541532</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0.99</v>
+        <v>0.923333362502783</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>1.01</v>
+        <v>1.07666663749722</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.99</v>
@@ -2979,21 +2979,21 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0.923333362502783</v>
+        <v>0.955157747123127</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>1.07666663749722</v>
+        <v>1.04484225287687</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.99</v>
@@ -3007,77 +3007,77 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0.955157747123127</v>
+        <v>0.824707049979672</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>1.04484225287687</v>
+        <v>1.17529295002033</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0.99</v>
+        <v>0.952987338158675</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>1.01</v>
+        <v>1.04701266184133</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>0.824707049979672</v>
+        <v>0.873263888888888</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>1.17529295002033</v>
+        <v>1.12673611111111</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>0.952987338158675</v>
+        <v>0.99</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>1.04701266184133</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>0.873263888888888</v>
+        <v>0.99</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>1.12673611111111</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0.99</v>
@@ -3091,21 +3091,21 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>0.99</v>
+        <v>0.944333167529983</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>1.01</v>
+        <v>1.05566683247002</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.99</v>
@@ -3119,63 +3119,63 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0.944333167529983</v>
+        <v>0.890748496539046</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>1.05566683247002</v>
+        <v>1.10925150346095</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>0.99</v>
+        <v>0.738916363773338</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>1.01</v>
+        <v>1.26108363622666</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>0.890748496539046</v>
+        <v>0.99</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>1.10925150346095</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>0.738916363773338</v>
+        <v>0.99</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>1.26108363622666</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0.99</v>
@@ -3189,7 +3189,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0.99</v>
@@ -3203,7 +3203,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0.99</v>
@@ -3217,7 +3217,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.99</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.99</v>
@@ -3245,7 +3245,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0.99</v>
@@ -3259,7 +3259,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.99</v>
@@ -3273,7 +3273,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.99</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.99</v>
@@ -3299,34 +3299,8 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B52" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3352,9 +3326,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.5263157894737"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -12323,8 +12297,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model5_dGs.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model5_dGs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="227">
   <si>
     <t>General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -856,12 +856,12 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="1" sqref="A:D F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="59.2348178137652"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="59.7732793522267"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -987,7 +987,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I40" activeCellId="0" sqref="I40"/>
+      <selection pane="topLeft" activeCell="I40" activeCellId="1" sqref="A:D I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2588,18 +2588,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D65536"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="A:D"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -2671,63 +2671,63 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0.928124943041768</v>
+        <v>0.99</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1.07187505695823</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.99</v>
+        <v>0.928124943041768</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1.01</v>
+        <v>1.07187505695823</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.980758075213057</v>
+        <v>0.99</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1.01924192478694</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.99</v>
+        <v>0.980758075213057</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1.01</v>
+        <v>1.01924192478694</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -2741,35 +2741,35 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0.850553653712464</v>
+        <v>0.99</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1.14944634628754</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.99</v>
+        <v>0.850553653712464</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1.01</v>
+        <v>1.14944634628754</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -2797,77 +2797,77 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0.998343913039016</v>
+        <v>0.99</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1.00165608696098</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0.925834010503215</v>
+        <v>0.998343913039016</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1.07416598949679</v>
+        <v>1.00165608696098</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0.914831185724609</v>
+        <v>0.925834010503215</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1.08516881427539</v>
+        <v>1.07416598949679</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0.889197992439507</v>
+        <v>0.914831185724609</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1.11080200756049</v>
+        <v>1.08516881427539</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.99</v>
+        <v>0.889197992439507</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1.01</v>
+        <v>1.11080200756049</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.99</v>
@@ -2881,7 +2881,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.99</v>
@@ -2895,77 +2895,77 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0.912928600623706</v>
+        <v>0.99</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>1.08707139937629</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0.885298914584682</v>
+        <v>0.99</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>1.11470108541532</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0.99</v>
+        <v>0.912928600623706</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>1.01</v>
+        <v>1.08707139937629</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0.99</v>
+        <v>0.885298914584682</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>1.01</v>
+        <v>1.11470108541532</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0.923333362502783</v>
+        <v>0.99</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>1.07666663749722</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.99</v>
@@ -2979,21 +2979,21 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0.955157747123127</v>
+        <v>0.923333362502783</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>1.04484225287687</v>
+        <v>1.07666663749722</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.99</v>
@@ -3007,77 +3007,77 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0.824707049979672</v>
+        <v>0.955157747123127</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>1.17529295002033</v>
+        <v>1.04484225287687</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0.952987338158675</v>
+        <v>0.99</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>1.04701266184133</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>0.873263888888888</v>
+        <v>0.824707049979672</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>1.12673611111111</v>
+        <v>1.17529295002033</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>0.99</v>
+        <v>0.952987338158675</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>1.01</v>
+        <v>1.04701266184133</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>0.99</v>
+        <v>0.873263888888888</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>1.01</v>
+        <v>1.12673611111111</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0.99</v>
@@ -3091,21 +3091,21 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>0.944333167529983</v>
+        <v>0.99</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>1.05566683247002</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.99</v>
@@ -3119,63 +3119,63 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0.890748496539046</v>
+        <v>0.944333167529983</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>1.10925150346095</v>
+        <v>1.05566683247002</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>0.738916363773338</v>
+        <v>0.99</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>1.26108363622666</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>0.99</v>
+        <v>0.890748496539046</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>1.01</v>
+        <v>1.10925150346095</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>0.99</v>
+        <v>0.738916363773338</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>1.01</v>
+        <v>1.26108363622666</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0.99</v>
@@ -3189,7 +3189,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0.99</v>
@@ -3203,7 +3203,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0.99</v>
@@ -3217,7 +3217,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.99</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.99</v>
@@ -3245,7 +3245,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0.99</v>
@@ -3259,7 +3259,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.99</v>
@@ -3273,7 +3273,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.99</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.99</v>
@@ -3299,8 +3299,34 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3320,15 +3346,15 @@
   <dimension ref="A1:X50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="1" sqref="A:D H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.5627530364373"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.8502024291498"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -4365,7 +4391,7 @@
   <dimension ref="A1:AZ50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="A:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12292,13 +12318,13 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.3846153846154"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -13361,7 +13387,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14091,7 +14117,7 @@
   <dimension ref="A2:A51"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14368,7 +14394,7 @@
   <dimension ref="A2:A53"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14655,7 +14681,7 @@
   <dimension ref="A2:A53"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14942,7 +14968,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15528,7 +15554,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model5_dGs.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model5_dGs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,687 +32,693 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="227">
-  <si>
-    <t>General Reaction and Sampling Platform (GRASP)</t>
-  </si>
-  <si>
-    <t>Model name</t>
-  </si>
-  <si>
-    <t>toy_model5_dGs</t>
-  </si>
-  <si>
-    <t>Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>ORACLE</t>
-  </si>
-  <si>
-    <t>NLP solver (NLOPT, OPTI, FMINCON (default))</t>
-  </si>
-  <si>
-    <t>FMINCON</t>
-  </si>
-  <si>
-    <t>Number of exp. conditions (excluding reference state)</t>
-  </si>
-  <si>
-    <t>Number of model structures</t>
-  </si>
-  <si>
-    <t>Number of particles</t>
-  </si>
-  <si>
-    <t>Parallel mode (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Number of cores (ignored if Parallel mode disabled)</t>
-  </si>
-  <si>
-    <t>Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>Compute robust fluxes (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t>Final tolerance (in the case of ORACLE, set to 1)</t>
-  </si>
-  <si>
-    <t>rxn ID</t>
-  </si>
-  <si>
-    <t>m1</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>m3</t>
-  </si>
-  <si>
-    <t>m4</t>
-  </si>
-  <si>
-    <t>m5</t>
-  </si>
-  <si>
-    <t>m6</t>
-  </si>
-  <si>
-    <t>m7</t>
-  </si>
-  <si>
-    <t>m8</t>
-  </si>
-  <si>
-    <t>m9</t>
-  </si>
-  <si>
-    <t>m10</t>
-  </si>
-  <si>
-    <t>m11</t>
-  </si>
-  <si>
-    <t>m12</t>
-  </si>
-  <si>
-    <t>m13</t>
-  </si>
-  <si>
-    <t>m14</t>
-  </si>
-  <si>
-    <t>m15</t>
-  </si>
-  <si>
-    <t>m16</t>
-  </si>
-  <si>
-    <t>m17</t>
-  </si>
-  <si>
-    <t>m18</t>
-  </si>
-  <si>
-    <t>m19</t>
-  </si>
-  <si>
-    <t>m20</t>
-  </si>
-  <si>
-    <t>m21</t>
-  </si>
-  <si>
-    <t>m22</t>
-  </si>
-  <si>
-    <t>m23</t>
-  </si>
-  <si>
-    <t>m24</t>
-  </si>
-  <si>
-    <t>m25</t>
-  </si>
-  <si>
-    <t>m26</t>
-  </si>
-  <si>
-    <t>m27</t>
-  </si>
-  <si>
-    <t>m28</t>
-  </si>
-  <si>
-    <t>m29</t>
-  </si>
-  <si>
-    <t>m30</t>
-  </si>
-  <si>
-    <t>m31</t>
-  </si>
-  <si>
-    <t>m32</t>
-  </si>
-  <si>
-    <t>m33</t>
-  </si>
-  <si>
-    <t>m34</t>
-  </si>
-  <si>
-    <t>m35</t>
-  </si>
-  <si>
-    <t>m36</t>
-  </si>
-  <si>
-    <t>m37</t>
-  </si>
-  <si>
-    <t>m38</t>
-  </si>
-  <si>
-    <t>m39</t>
-  </si>
-  <si>
-    <t>m40</t>
-  </si>
-  <si>
-    <t>m41</t>
-  </si>
-  <si>
-    <t>m42</t>
-  </si>
-  <si>
-    <t>m43</t>
-  </si>
-  <si>
-    <t>m44</t>
-  </si>
-  <si>
-    <t>m45</t>
-  </si>
-  <si>
-    <t>m46</t>
-  </si>
-  <si>
-    <t>m47</t>
-  </si>
-  <si>
-    <t>m48</t>
-  </si>
-  <si>
-    <t>m49</t>
-  </si>
-  <si>
-    <t>m50</t>
-  </si>
-  <si>
-    <t>m51</t>
-  </si>
-  <si>
-    <t>r1</t>
-  </si>
-  <si>
-    <t>r2</t>
-  </si>
-  <si>
-    <t>r3</t>
-  </si>
-  <si>
-    <t>r4</t>
-  </si>
-  <si>
-    <t>r5</t>
-  </si>
-  <si>
-    <t>r6</t>
-  </si>
-  <si>
-    <t>r7</t>
-  </si>
-  <si>
-    <t>r8</t>
-  </si>
-  <si>
-    <t>r9</t>
-  </si>
-  <si>
-    <t>r10</t>
-  </si>
-  <si>
-    <t>r11</t>
-  </si>
-  <si>
-    <t>r12</t>
-  </si>
-  <si>
-    <t>r13</t>
-  </si>
-  <si>
-    <t>r14</t>
-  </si>
-  <si>
-    <t>r15</t>
-  </si>
-  <si>
-    <t>r16</t>
-  </si>
-  <si>
-    <t>r17</t>
-  </si>
-  <si>
-    <t>r18</t>
-  </si>
-  <si>
-    <t>r19</t>
-  </si>
-  <si>
-    <t>r20</t>
-  </si>
-  <si>
-    <t>r21</t>
-  </si>
-  <si>
-    <t>r22</t>
-  </si>
-  <si>
-    <t>r23</t>
-  </si>
-  <si>
-    <t>r24</t>
-  </si>
-  <si>
-    <t>r25</t>
-  </si>
-  <si>
-    <t>r26</t>
-  </si>
-  <si>
-    <t>r27</t>
-  </si>
-  <si>
-    <t>r28</t>
-  </si>
-  <si>
-    <t>r29</t>
-  </si>
-  <si>
-    <t>r30</t>
-  </si>
-  <si>
-    <t>r31</t>
-  </si>
-  <si>
-    <t>r32</t>
-  </si>
-  <si>
-    <t>r33</t>
-  </si>
-  <si>
-    <t>r34</t>
-  </si>
-  <si>
-    <t>r35</t>
-  </si>
-  <si>
-    <t>r36</t>
-  </si>
-  <si>
-    <t>r37</t>
-  </si>
-  <si>
-    <t>r38</t>
-  </si>
-  <si>
-    <t>r39</t>
-  </si>
-  <si>
-    <t>r40</t>
-  </si>
-  <si>
-    <t>r41</t>
-  </si>
-  <si>
-    <t>r42</t>
-  </si>
-  <si>
-    <t>r43</t>
-  </si>
-  <si>
-    <t>r44</t>
-  </si>
-  <si>
-    <t>r45</t>
-  </si>
-  <si>
-    <t>r46</t>
-  </si>
-  <si>
-    <t>r47</t>
-  </si>
-  <si>
-    <t>r48</t>
-  </si>
-  <si>
-    <t>r49</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Metabolite name</t>
-  </si>
-  <si>
-    <t>balanced?</t>
-  </si>
-  <si>
-    <t>active?</t>
-  </si>
-  <si>
-    <t>fixed?</t>
-  </si>
-  <si>
-    <t>measured?</t>
-  </si>
-  <si>
-    <t>reaction name</t>
-  </si>
-  <si>
-    <t>transportRxn?</t>
-  </si>
-  <si>
-    <t>modelled?</t>
-  </si>
-  <si>
-    <t>isoenzymes</t>
-  </si>
-  <si>
-    <t>met</t>
-  </si>
-  <si>
-    <t>rxn</t>
-  </si>
-  <si>
-    <t>∆Gr'_min (kJ/mol)</t>
-  </si>
-  <si>
-    <t>∆Gr'_max (kJ/mol)</t>
-  </si>
-  <si>
-    <t>Unnamed: 3</t>
-  </si>
-  <si>
-    <t>equilibrator:  D-Glucose + Ubiquinone + H2O &lt;=&gt; D-Gluconate + Ubiquinol</t>
-  </si>
-  <si>
-    <t>equilibrator: D-Gluconate + Ubiquinone &lt;=&gt; 2-Keto-D-gluconic acid + Ubiquinol</t>
-  </si>
-  <si>
-    <t>min (M)</t>
-  </si>
-  <si>
-    <t>max (M)</t>
-  </si>
-  <si>
-    <t>Fluxes (umol/gCDW/h)</t>
-  </si>
-  <si>
-    <t>MBo10_mean</t>
-  </si>
-  <si>
-    <t>MBo10_std</t>
-  </si>
-  <si>
-    <t>MBo10_mean2</t>
-  </si>
-  <si>
-    <t>enzyme/rxn</t>
-  </si>
-  <si>
-    <t>MBo10_LB2</t>
-  </si>
-  <si>
-    <t>MBo10_meas2</t>
-  </si>
-  <si>
-    <t>MBo10_UB2</t>
-  </si>
-  <si>
-    <t>reaction ID</t>
-  </si>
-  <si>
-    <t>kinetic mechanism</t>
-  </si>
-  <si>
-    <t>substrate order</t>
-  </si>
-  <si>
-    <t>product order</t>
-  </si>
-  <si>
-    <t>promiscuous</t>
-  </si>
-  <si>
-    <t>inhibitors</t>
-  </si>
-  <si>
-    <t>activators</t>
-  </si>
-  <si>
-    <t>negative effectors</t>
-  </si>
-  <si>
-    <t>positive effectors</t>
-  </si>
-  <si>
-    <t>allosteric</t>
-  </si>
-  <si>
-    <t>subunits</t>
-  </si>
-  <si>
-    <t>mechanism_refs_type</t>
-  </si>
-  <si>
-    <t>mechanism_refs</t>
-  </si>
-  <si>
-    <t>inhibitors_refs_type</t>
-  </si>
-  <si>
-    <t>inhibitors_refs</t>
-  </si>
-  <si>
-    <t>activators_refs_type</t>
-  </si>
-  <si>
-    <t>activators_refs</t>
-  </si>
-  <si>
-    <t>negative_effectors_refs_type</t>
-  </si>
-  <si>
-    <t>negative_effectors_refs</t>
-  </si>
-  <si>
-    <t>positive_effectors_refs_type</t>
-  </si>
-  <si>
-    <t>positive_effectors_refs</t>
-  </si>
-  <si>
-    <t>subunits_refs_type</t>
-  </si>
-  <si>
-    <t>subunits_refs</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>orderedBiTer</t>
-  </si>
-  <si>
-    <t>m2 m3</t>
-  </si>
-  <si>
-    <t>m6 m7 m5</t>
-  </si>
-  <si>
-    <t>randomBiBi</t>
-  </si>
-  <si>
-    <t>m5 m3</t>
-  </si>
-  <si>
-    <t>m6 m8</t>
-  </si>
-  <si>
-    <t>uniUni</t>
-  </si>
-  <si>
-    <t>m10 m3</t>
-  </si>
-  <si>
-    <t>m6 m11</t>
-  </si>
-  <si>
-    <t>orderedBiBi</t>
-  </si>
-  <si>
-    <t>m3 m13</t>
-  </si>
-  <si>
-    <t>m14 m6</t>
-  </si>
-  <si>
-    <t>PGLCNDH</t>
-  </si>
-  <si>
-    <t>m15 m14 m17 m14</t>
-  </si>
-  <si>
-    <t>m16 m18 m11 m11</t>
-  </si>
-  <si>
-    <t>r7 r8</t>
-  </si>
-  <si>
-    <t>pingPongBiBi</t>
-  </si>
-  <si>
-    <t>m2 m19</t>
-  </si>
-  <si>
-    <t>m9 m20</t>
-  </si>
-  <si>
-    <t>m19 m9</t>
-  </si>
-  <si>
-    <t>m12 m20</t>
-  </si>
-  <si>
-    <t>m18 m8</t>
-  </si>
-  <si>
-    <t>m21 m17</t>
-  </si>
-  <si>
-    <t>m17 m15</t>
-  </si>
-  <si>
-    <t>G6PDH2PromiscuousOrdered</t>
-  </si>
-  <si>
-    <t>m16 m8 m18 m8</t>
-  </si>
-  <si>
-    <t>m21 m21 m15 m17</t>
-  </si>
-  <si>
-    <t>r12 r13</t>
-  </si>
-  <si>
-    <t>GND</t>
-  </si>
-  <si>
-    <t>m11 m16 m11 m18</t>
-  </si>
-  <si>
-    <t>m15 m17 m23 m23</t>
-  </si>
-  <si>
-    <t>r15 r16</t>
-  </si>
-  <si>
-    <t>m24 m25</t>
-  </si>
-  <si>
-    <t>m26 m27</t>
-  </si>
-  <si>
-    <t>m25 m28</t>
-  </si>
-  <si>
-    <t>m26 m29</t>
-  </si>
-  <si>
-    <t>m27 m26</t>
-  </si>
-  <si>
-    <t>m28 m29</t>
-  </si>
-  <si>
-    <t>randomUniBi</t>
-  </si>
-  <si>
-    <t>m26 m31</t>
-  </si>
-  <si>
-    <t>orderedUniBi</t>
-  </si>
-  <si>
-    <t>m29 m7</t>
-  </si>
-  <si>
-    <t>orderedBiUni</t>
-  </si>
-  <si>
-    <t>m33 m26</t>
-  </si>
-  <si>
-    <t>orderedTerBi</t>
-  </si>
-  <si>
-    <t>m16 m26 m7</t>
-  </si>
-  <si>
-    <t>m34 m15</t>
-  </si>
-  <si>
-    <t>m6 m34</t>
-  </si>
-  <si>
-    <t>m35 m3</t>
-  </si>
-  <si>
-    <t>m6 m37</t>
-  </si>
-  <si>
-    <t>m3 m31</t>
-  </si>
-  <si>
-    <t>m30 m24 m29</t>
-  </si>
-  <si>
-    <t>GTHPi</t>
-  </si>
-  <si>
-    <t>m38 m39 m39</t>
-  </si>
-  <si>
-    <t>pingPongUniUniUniBi</t>
-  </si>
-  <si>
-    <t>m17 m40</t>
-  </si>
-  <si>
-    <t>m18 m39</t>
-  </si>
-  <si>
-    <t>massAction</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="229">
+  <si>
+    <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toy_model5_dGs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORACLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMINCON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP solver (linprog or gurobi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of model structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolite name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balanced?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measured?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transportRxn?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modelled?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isoenzymes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">met</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_min (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_max (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">equilibrator:  D-Glucose + Ubiquinone + H2O &lt;=&gt; D-Gluconate + Ubiquinol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">equilibrator: D-Gluconate + Ubiquinone &lt;=&gt; 2-Keto-D-gluconic acid + Ubiquinol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxes (umol/gCDW/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_mean2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enzyme/rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_meas2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinetic mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrate order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative effectors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive effectors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allosteric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mechanism_refs_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mechanism_refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors_refs_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors_refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators_refs_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators_refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative_effectors_refs_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative_effectors_refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive_effectors_refs_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive_effectors_refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits_refs_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits_refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedBiTer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2 m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m6 m7 m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m6 m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uniUni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m10 m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m6 m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3 m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m14 m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PGLCNDH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m15 m14 m17 m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m16 m18 m11 m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r7 r8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pingPongBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2 m19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9 m20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m19 m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m12 m20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m18 m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m21 m17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m17 m15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G6PDH2PromiscuousOrdered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m16 m8 m18 m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m21 m21 m15 m17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r12 r13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m11 m16 m11 m18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m15 m17 m23 m23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r15 r16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m24 m25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m26 m27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m25 m28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m26 m29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m27 m26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m28 m29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomUniBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m26 m31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedUniBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m29 m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedBiUni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m33 m26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedTerBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m16 m26 m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m34 m15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m6 m34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m35 m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m6 m37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3 m31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m30 m24 m29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTHPi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m38 m39 m39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pingPongUniUniUniBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m17 m40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m18 m39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">massAction</t>
   </si>
 </sst>
 </file>
@@ -720,7 +726,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -814,13 +820,17 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -853,16 +863,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="1" sqref="A:D F9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="59.7732793522267"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="59.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -894,17 +904,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -912,44 +922,44 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -957,21 +967,29 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -986,35 +1004,35 @@
   </sheetPr>
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I40" activeCellId="1" sqref="A:D I40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I40" activeCellId="1" sqref="A5:B5 I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>630</v>
@@ -1031,7 +1049,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>630</v>
@@ -1048,7 +1066,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>4790</v>
@@ -1065,7 +1083,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>4790</v>
@@ -1082,7 +1100,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>720</v>
@@ -1099,7 +1117,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>720</v>
@@ -1116,7 +1134,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>360</v>
@@ -1133,7 +1151,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>360</v>
@@ -1150,7 +1168,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>5510</v>
@@ -1167,7 +1185,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>720</v>
@@ -1184,7 +1202,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>585</v>
@@ -1201,7 +1219,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>292.5</v>
@@ -1218,7 +1236,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>292.5</v>
@@ -1235,7 +1253,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1170</v>
@@ -1252,7 +1270,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>295</v>
@@ -1269,7 +1287,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>295</v>
@@ -1286,7 +1304,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>440</v>
@@ -1303,7 +1321,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>150</v>
@@ -1320,7 +1338,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>150</v>
@@ -1337,7 +1355,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>10</v>
@@ -1354,7 +1372,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>150</v>
@@ -1371,7 +1389,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>6110</v>
@@ -1388,7 +1406,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>6110</v>
@@ -1405,7 +1423,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>570</v>
@@ -1422,7 +1440,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>460</v>
@@ -1439,7 +1457,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>460</v>
@@ -1456,7 +1474,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>460</v>
@@ -1473,7 +1491,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>5110</v>
@@ -1490,7 +1508,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>5110</v>
@@ -1507,7 +1525,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>4360</v>
@@ -1524,7 +1542,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>4360</v>
@@ -1541,7 +1559,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>3890</v>
@@ -1558,7 +1576,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>500</v>
@@ -1575,7 +1593,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>500</v>
@@ -1592,7 +1610,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>2230</v>
@@ -1609,7 +1627,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>5337.5</v>
@@ -1626,7 +1644,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>312.5</v>
@@ -1643,7 +1661,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>10000</v>
@@ -1660,7 +1678,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>470</v>
@@ -1677,7 +1695,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>500</v>
@@ -1694,7 +1712,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>30</v>
@@ -1711,7 +1729,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>20</v>
@@ -1728,7 +1746,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>290</v>
@@ -1745,7 +1763,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>10</v>
@@ -1762,7 +1780,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>90</v>
@@ -1779,7 +1797,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>140</v>
@@ -1796,7 +1814,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>50</v>
@@ -1813,7 +1831,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>750</v>
@@ -1830,7 +1848,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>6140</v>
@@ -1848,7 +1866,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1863,32 +1881,32 @@
   </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A:D"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.99</v>
@@ -1902,7 +1920,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1916,7 +1934,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1930,7 +1948,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1944,7 +1962,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -1958,7 +1976,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -1972,7 +1990,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -1986,7 +2004,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -2000,7 +2018,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -2014,7 +2032,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -2028,7 +2046,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -2042,7 +2060,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -2056,7 +2074,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -2070,7 +2088,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -2084,7 +2102,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.99</v>
@@ -2098,7 +2116,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -2112,7 +2130,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -2126,7 +2144,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.99</v>
@@ -2140,7 +2158,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.99</v>
@@ -2154,7 +2172,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.99</v>
@@ -2168,7 +2186,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.99</v>
@@ -2182,7 +2200,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.99</v>
@@ -2196,7 +2214,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.99</v>
@@ -2210,7 +2228,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.99</v>
@@ -2224,7 +2242,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.99</v>
@@ -2238,7 +2256,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.99</v>
@@ -2252,7 +2270,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.99</v>
@@ -2266,7 +2284,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.99</v>
@@ -2280,7 +2298,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.99</v>
@@ -2294,7 +2312,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.99</v>
@@ -2308,7 +2326,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.99</v>
@@ -2322,7 +2340,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.99</v>
@@ -2336,7 +2354,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0.99</v>
@@ -2350,7 +2368,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0.99</v>
@@ -2364,7 +2382,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0.99</v>
@@ -2378,7 +2396,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.99</v>
@@ -2392,7 +2410,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0.99</v>
@@ -2406,7 +2424,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0.99</v>
@@ -2420,7 +2438,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0.99</v>
@@ -2434,7 +2452,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0.99</v>
@@ -2448,7 +2466,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0.99</v>
@@ -2462,7 +2480,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0.99</v>
@@ -2476,7 +2494,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0.99</v>
@@ -2490,7 +2508,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.99</v>
@@ -2504,7 +2522,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.99</v>
@@ -2518,7 +2536,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0.99</v>
@@ -2532,7 +2550,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.99</v>
@@ -2546,7 +2564,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.99</v>
@@ -2560,7 +2578,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.99</v>
@@ -2575,7 +2593,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2590,32 +2608,32 @@
   </sheetPr>
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="A:D"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A5:B5 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.99</v>
@@ -2629,7 +2647,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -2643,7 +2661,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.805792525521532</v>
@@ -2657,7 +2675,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -2671,7 +2689,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -2685,7 +2703,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.928124943041768</v>
@@ -2699,7 +2717,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -2713,7 +2731,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.980758075213057</v>
@@ -2727,7 +2745,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -2741,7 +2759,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -2755,7 +2773,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.850553653712464</v>
@@ -2769,7 +2787,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -2783,7 +2801,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -2797,7 +2815,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -2811,7 +2829,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.998343913039016</v>
@@ -2825,7 +2843,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.925834010503215</v>
@@ -2839,7 +2857,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.914831185724609</v>
@@ -2853,7 +2871,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.889197992439507</v>
@@ -2867,7 +2885,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.99</v>
@@ -2881,7 +2899,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.99</v>
@@ -2895,7 +2913,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.99</v>
@@ -2909,7 +2927,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.99</v>
@@ -2923,7 +2941,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.912928600623706</v>
@@ -2937,7 +2955,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.885298914584682</v>
@@ -2951,7 +2969,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.99</v>
@@ -2965,7 +2983,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.99</v>
@@ -2979,7 +2997,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.923333362502783</v>
@@ -2993,7 +3011,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.99</v>
@@ -3007,7 +3025,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.955157747123127</v>
@@ -3021,7 +3039,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.99</v>
@@ -3035,7 +3053,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.824707049979672</v>
@@ -3049,7 +3067,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.952987338158675</v>
@@ -3063,7 +3081,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0.873263888888888</v>
@@ -3077,7 +3095,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0.99</v>
@@ -3091,7 +3109,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0.99</v>
@@ -3105,7 +3123,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.99</v>
@@ -3119,7 +3137,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0.944333167529983</v>
@@ -3133,7 +3151,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0.99</v>
@@ -3147,7 +3165,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0.890748496539046</v>
@@ -3161,7 +3179,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0.738916363773338</v>
@@ -3175,7 +3193,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0.99</v>
@@ -3189,7 +3207,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0.99</v>
@@ -3203,7 +3221,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0.99</v>
@@ -3217,7 +3235,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.99</v>
@@ -3231,7 +3249,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.99</v>
@@ -3245,7 +3263,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0.99</v>
@@ -3259,7 +3277,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.99</v>
@@ -3273,7 +3291,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.99</v>
@@ -3287,7 +3305,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.99</v>
@@ -3301,7 +3319,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>0.99</v>
@@ -3315,7 +3333,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0.99</v>
@@ -3330,7 +3348,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3345,105 +3363,105 @@
   </sheetPr>
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="1" sqref="A:D H17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H17" activeCellId="1" sqref="A5:B5 H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.8866396761134"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.8502024291498"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -3454,16 +3472,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -3474,16 +3492,16 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -3494,19 +3512,19 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>1</v>
@@ -3517,16 +3535,16 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -3537,16 +3555,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -3557,19 +3575,19 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D8" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="C8" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="E8" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -3580,19 +3598,19 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D9" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="C9" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="E9" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -3603,16 +3621,16 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -3623,16 +3641,16 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -3643,19 +3661,19 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>1</v>
@@ -3666,22 +3684,22 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="C13" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="H13" s="0" t="s">
         <v>194</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>192</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>1</v>
@@ -3692,22 +3710,22 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="C14" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="H14" s="0" t="s">
         <v>194</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>192</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>1</v>
@@ -3718,16 +3736,16 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>0</v>
@@ -3738,22 +3756,22 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D16" s="3" t="s">
         <v>199</v>
       </c>
+      <c r="C16" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>201</v>
+      </c>
       <c r="E16" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>1</v>
@@ -3764,22 +3782,22 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D17" s="3" t="s">
         <v>199</v>
       </c>
+      <c r="C17" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>201</v>
+      </c>
       <c r="E17" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>1</v>
@@ -3790,16 +3808,16 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>0</v>
@@ -3807,20 +3825,20 @@
       <c r="K18" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W18" s="4"/>
+      <c r="W18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>0</v>
@@ -3831,16 +3849,16 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>0</v>
@@ -3848,20 +3866,20 @@
       <c r="K20" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W20" s="4"/>
+      <c r="W20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>0</v>
@@ -3869,20 +3887,20 @@
       <c r="K21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W21" s="4"/>
+      <c r="W21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>0</v>
@@ -3893,19 +3911,19 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>1</v>
@@ -3916,16 +3934,16 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>0</v>
@@ -3936,16 +3954,16 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>0</v>
@@ -3953,20 +3971,20 @@
       <c r="K25" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W25" s="4"/>
+      <c r="W25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J26" s="0" t="n">
         <v>0</v>
@@ -3974,20 +3992,20 @@
       <c r="K26" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="W26" s="4"/>
+      <c r="W26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>0</v>
@@ -3998,16 +4016,16 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J28" s="0" t="n">
         <v>0</v>
@@ -4018,19 +4036,19 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>1</v>
@@ -4041,16 +4059,16 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>0</v>
@@ -4061,16 +4079,16 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>0</v>
@@ -4081,16 +4099,16 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J32" s="0" t="n">
         <v>0</v>
@@ -4101,19 +4119,19 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="J33" s="0" t="n">
         <v>1</v>
@@ -4124,16 +4142,16 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>0</v>
@@ -4144,16 +4162,16 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>0</v>
@@ -4164,10 +4182,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>0</v>
@@ -4178,10 +4196,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J37" s="0" t="n">
         <v>0</v>
@@ -4192,10 +4210,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>0</v>
@@ -4206,10 +4224,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>0</v>
@@ -4220,10 +4238,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>0</v>
@@ -4234,10 +4252,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J41" s="0" t="n">
         <v>0</v>
@@ -4248,10 +4266,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>0</v>
@@ -4262,10 +4280,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>0</v>
@@ -4276,10 +4294,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>0</v>
@@ -4290,10 +4308,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>0</v>
@@ -4304,10 +4322,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J46" s="0" t="n">
         <v>0</v>
@@ -4318,10 +4336,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J47" s="0" t="n">
         <v>0</v>
@@ -4332,10 +4350,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J48" s="0" t="n">
         <v>0</v>
@@ -4346,10 +4364,10 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>0</v>
@@ -4360,10 +4378,10 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>0</v>
@@ -4375,7 +4393,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4390,176 +4408,176 @@
   </sheetPr>
   <dimension ref="A1:AZ50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="A:D"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="1" sqref="A5:B5 C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -4717,7 +4735,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -4875,7 +4893,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -5033,7 +5051,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -5191,7 +5209,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -5349,7 +5367,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -5507,7 +5525,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -5665,7 +5683,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -5823,7 +5841,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -5981,7 +5999,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -6139,7 +6157,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -6297,7 +6315,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -6455,7 +6473,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -6613,7 +6631,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -6771,7 +6789,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -6929,7 +6947,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -7087,7 +7105,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -7245,7 +7263,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -7403,7 +7421,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -7561,7 +7579,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -7719,7 +7737,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -7877,7 +7895,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -8035,7 +8053,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -8193,7 +8211,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -8351,7 +8369,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -8509,7 +8527,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -8667,7 +8685,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -8825,7 +8843,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -8983,7 +9001,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -9141,7 +9159,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -9299,7 +9317,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -9457,7 +9475,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -9615,7 +9633,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -9773,7 +9791,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -9931,7 +9949,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -10089,7 +10107,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -10247,7 +10265,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -10405,7 +10423,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -10563,7 +10581,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -10721,7 +10739,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -10879,7 +10897,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -11037,7 +11055,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -11195,7 +11213,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -11353,7 +11371,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -11511,7 +11529,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -11669,7 +11687,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -11827,7 +11845,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -11985,7 +12003,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -12143,7 +12161,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>-1</v>
@@ -12302,7 +12320,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -12317,43 +12335,43 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A:D"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -12370,10 +12388,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
@@ -12390,10 +12408,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -12410,10 +12428,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -12430,10 +12448,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -12450,10 +12468,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -12470,10 +12488,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -12490,10 +12508,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -12510,10 +12528,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -12530,10 +12548,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -12550,10 +12568,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -12570,10 +12588,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
@@ -12590,10 +12608,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
@@ -12610,10 +12628,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -12630,10 +12648,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
@@ -12650,10 +12668,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
@@ -12670,10 +12688,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
@@ -12690,10 +12708,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1</v>
@@ -12710,10 +12728,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -12730,10 +12748,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -12750,10 +12768,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1</v>
@@ -12770,10 +12788,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
@@ -12790,10 +12808,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
@@ -12810,10 +12828,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
@@ -12830,10 +12848,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1</v>
@@ -12850,10 +12868,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1</v>
@@ -12870,10 +12888,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1</v>
@@ -12890,10 +12908,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>1</v>
@@ -12910,10 +12928,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1</v>
@@ -12930,10 +12948,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1</v>
@@ -12950,10 +12968,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>1</v>
@@ -12970,10 +12988,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>1</v>
@@ -12990,10 +13008,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>1</v>
@@ -13010,10 +13028,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>1</v>
@@ -13030,10 +13048,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>1</v>
@@ -13050,10 +13068,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>1</v>
@@ -13070,10 +13088,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>1</v>
@@ -13090,10 +13108,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>1</v>
@@ -13110,10 +13128,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>1</v>
@@ -13130,10 +13148,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>1</v>
@@ -13150,10 +13168,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
@@ -13170,10 +13188,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0</v>
@@ -13190,10 +13208,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
@@ -13210,10 +13228,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>0</v>
@@ -13230,10 +13248,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>0</v>
@@ -13250,10 +13268,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>0</v>
@@ -13270,10 +13288,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>0</v>
@@ -13290,10 +13308,10 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>0</v>
@@ -13310,10 +13328,10 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>0</v>
@@ -13330,10 +13348,10 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>0</v>
@@ -13350,10 +13368,10 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>0</v>
@@ -13371,7 +13389,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -13386,38 +13404,38 @@
   </sheetPr>
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A:D"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -13428,10 +13446,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -13442,10 +13460,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -13456,10 +13474,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -13470,10 +13488,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -13484,10 +13502,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -13498,10 +13516,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -13512,10 +13530,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -13526,10 +13544,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -13540,10 +13558,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -13554,10 +13572,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -13568,10 +13586,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -13582,10 +13600,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -13596,10 +13614,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -13610,10 +13628,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -13624,10 +13642,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -13638,10 +13656,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -13652,10 +13670,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -13666,10 +13684,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -13680,10 +13698,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -13694,10 +13712,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
@@ -13708,10 +13726,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
@@ -13722,10 +13740,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0</v>
@@ -13736,10 +13754,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
@@ -13750,10 +13768,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0</v>
@@ -13764,10 +13782,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0</v>
@@ -13778,10 +13796,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0</v>
@@ -13792,10 +13810,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0</v>
@@ -13806,10 +13824,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0</v>
@@ -13820,10 +13838,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0</v>
@@ -13834,10 +13852,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0</v>
@@ -13848,10 +13866,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>0</v>
@@ -13862,10 +13880,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0</v>
@@ -13876,10 +13894,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>0</v>
@@ -13890,10 +13908,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>0</v>
@@ -13904,10 +13922,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>0</v>
@@ -13918,10 +13936,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>0</v>
@@ -13932,10 +13950,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>0</v>
@@ -13946,10 +13964,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>0</v>
@@ -13960,10 +13978,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
@@ -13974,10 +13992,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
@@ -13988,10 +14006,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0</v>
@@ -14002,10 +14020,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
@@ -14016,10 +14034,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>0</v>
@@ -14030,10 +14048,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>0</v>
@@ -14044,10 +14062,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>0</v>
@@ -14058,10 +14076,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>0</v>
@@ -14072,10 +14090,10 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>0</v>
@@ -14086,10 +14104,10 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>0</v>
@@ -14101,7 +14119,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -14116,269 +14134,269 @@
   </sheetPr>
   <dimension ref="A2:A51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A:D"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -14393,279 +14411,279 @@
   </sheetPr>
   <dimension ref="A2:A53"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A:D"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -14680,279 +14698,279 @@
   </sheetPr>
   <dimension ref="A2:A53"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A:D"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -14967,32 +14985,32 @@
   </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A:D"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-26.7</v>
@@ -15003,7 +15021,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-17.67</v>
@@ -15014,7 +15032,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-5</v>
@@ -15025,7 +15043,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-13.28</v>
@@ -15036,7 +15054,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-5</v>
@@ -15047,7 +15065,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-15.53</v>
@@ -15058,7 +15076,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-18.47</v>
@@ -15069,7 +15087,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-19.27</v>
@@ -15080,7 +15098,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-124.6</v>
@@ -15089,12 +15107,12 @@
         <v>-107.6</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-72.7</v>
@@ -15103,12 +15121,12 @@
         <v>-60.3</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-3.75</v>
@@ -15119,7 +15137,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-4.55</v>
@@ -15130,7 +15148,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-3.75</v>
@@ -15141,7 +15159,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>-22.74</v>
@@ -15152,7 +15170,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>7.05</v>
@@ -15163,7 +15181,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>7.83</v>
@@ -15174,7 +15192,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>-2.7</v>
@@ -15185,7 +15203,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>-4.56</v>
@@ -15196,7 +15214,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>-5.89</v>
@@ -15207,7 +15225,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>-11.95</v>
@@ -15218,7 +15236,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>-2.02</v>
@@ -15229,7 +15247,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>-45.61</v>
@@ -15240,7 +15258,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>13.43</v>
@@ -15251,7 +15269,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>-7.92</v>
@@ -15262,7 +15280,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>-12.1</v>
@@ -15273,7 +15291,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>-45.36</v>
@@ -15284,7 +15302,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>-26</v>
@@ -15295,7 +15313,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>7.44</v>
@@ -15306,7 +15324,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>-18.92</v>
@@ -15317,7 +15335,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>3.88</v>
@@ -15328,7 +15346,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>-40.39</v>
@@ -15339,7 +15357,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>-28.05</v>
@@ -15350,7 +15368,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>-313.2</v>
@@ -15361,7 +15379,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>-18.1</v>
@@ -15372,7 +15390,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>-184.66</v>
@@ -15383,7 +15401,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>-64.84</v>
@@ -15394,7 +15412,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>-65.67</v>
@@ -15405,7 +15423,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>-5</v>
@@ -15416,7 +15434,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>-5</v>
@@ -15427,7 +15445,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>-5</v>
@@ -15438,7 +15456,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>-5</v>
@@ -15449,7 +15467,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>-5</v>
@@ -15460,7 +15478,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>-5</v>
@@ -15471,7 +15489,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>-5</v>
@@ -15482,7 +15500,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>-5</v>
@@ -15493,7 +15511,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>-5</v>
@@ -15504,7 +15522,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>-5</v>
@@ -15515,7 +15533,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>-5</v>
@@ -15526,7 +15544,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>-5</v>
@@ -15538,7 +15556,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -15553,29 +15571,29 @@
   </sheetPr>
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A:D"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1E-012</v>
@@ -15586,7 +15604,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -15597,7 +15615,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.000439345784032404</v>
@@ -15608,7 +15626,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -15619,7 +15637,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -15630,7 +15648,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>6.24506431401138E-005</v>
@@ -15641,7 +15659,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1E-012</v>
@@ -15652,7 +15670,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.000883222876526613</v>
@@ -15663,7 +15681,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1E-012</v>
@@ -15674,7 +15692,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1E-012</v>
@@ -15685,7 +15703,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2.46062514038848E-005</v>
@@ -15696,7 +15714,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1E-012</v>
@@ -15707,7 +15725,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -15718,7 +15736,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -15729,7 +15747,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>3.05924813144012E-006</v>
@@ -15740,7 +15758,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.000203370048921736</v>
@@ -15751,7 +15769,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>2.24717321858005E-006</v>
@@ -15762,7 +15780,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>5.09756677236924E-005</v>
@@ -15773,7 +15791,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>1E-012</v>
@@ -15784,7 +15802,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1E-012</v>
@@ -15795,7 +15813,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1E-012</v>
@@ -15806,7 +15824,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1E-012</v>
@@ -15817,7 +15835,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>5.71511530863543E-005</v>
@@ -15828,7 +15846,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>7.3421020529482E-006</v>
@@ -15839,7 +15857,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>1E-012</v>
@@ -15850,7 +15868,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>1E-012</v>
@@ -15861,7 +15879,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.000132829358941644</v>
@@ -15872,7 +15890,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>1E-012</v>
@@ -15883,7 +15901,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.000178644347391622</v>
@@ -15894,7 +15912,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1E-012</v>
@@ -15905,7 +15923,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.000169455106133193</v>
@@ -15916,7 +15934,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>1.27743320102831E-005</v>
@@ -15927,7 +15945,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>9.16927083333333E-005</v>
@@ -15938,7 +15956,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1E-012</v>
@@ -15949,7 +15967,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>1E-012</v>
@@ -15960,7 +15978,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>1E-012</v>
@@ -15971,7 +15989,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0.000321335591728953</v>
@@ -15982,7 +16000,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>1E-012</v>
@@ -15993,7 +16011,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0.000703656517402701</v>
@@ -16004,7 +16022,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0.000284280752609516</v>
@@ -16015,7 +16033,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>1E-012</v>
@@ -16026,7 +16044,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>1E-012</v>
@@ -16037,7 +16055,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>1E-012</v>
@@ -16048,7 +16066,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>1E-012</v>
@@ -16059,7 +16077,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>1E-012</v>
@@ -16070,7 +16088,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>1E-012</v>
@@ -16081,7 +16099,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>1E-012</v>
@@ -16092,7 +16110,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>1E-012</v>
@@ -16103,7 +16121,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>1E-012</v>
@@ -16114,7 +16132,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>1E-012</v>
@@ -16125,7 +16143,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>1E-012</v>
@@ -16137,7 +16155,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model5_dGs.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model5_dGs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="223">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -43,13 +43,13 @@
     <t xml:space="preserve">toy_model5_dGs</t>
   </si>
   <si>
-    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORACLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+    <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
   </si>
   <si>
     <t xml:space="preserve">FMINCON</t>
@@ -76,18 +76,9 @@
     <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
   </si>
   <si>
@@ -403,12 +394,6 @@
     <t xml:space="preserve">balanced?</t>
   </si>
   <si>
-    <t xml:space="preserve">active?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fixed?</t>
-  </si>
-  <si>
     <t xml:space="preserve">measured?</t>
   </si>
   <si>
@@ -416,9 +401,6 @@
   </si>
   <si>
     <t xml:space="preserve">transportRxn?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modelled?</t>
   </si>
   <si>
     <t xml:space="preserve">isoenzymes</t>
@@ -863,15 +845,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="59.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="59.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.57"/>
   </cols>
   <sheetData>
@@ -880,24 +862,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -956,36 +938,21 @@
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1005,7 +972,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I40" activeCellId="1" sqref="A5:B5 I40"/>
+      <selection pane="topLeft" activeCell="I40" activeCellId="0" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1015,24 +982,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>630</v>
@@ -1049,7 +1016,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>630</v>
@@ -1066,7 +1033,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>4790</v>
@@ -1083,7 +1050,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>4790</v>
@@ -1100,7 +1067,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>720</v>
@@ -1117,7 +1084,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>720</v>
@@ -1134,7 +1101,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>360</v>
@@ -1151,7 +1118,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>360</v>
@@ -1168,7 +1135,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>5510</v>
@@ -1185,7 +1152,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>720</v>
@@ -1202,7 +1169,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>585</v>
@@ -1219,7 +1186,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>292.5</v>
@@ -1236,7 +1203,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>292.5</v>
@@ -1253,7 +1220,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1170</v>
@@ -1270,7 +1237,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>295</v>
@@ -1287,7 +1254,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>295</v>
@@ -1304,7 +1271,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>440</v>
@@ -1321,7 +1288,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>150</v>
@@ -1338,7 +1305,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>150</v>
@@ -1355,7 +1322,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>10</v>
@@ -1372,7 +1339,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>150</v>
@@ -1389,7 +1356,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>6110</v>
@@ -1406,7 +1373,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>6110</v>
@@ -1423,7 +1390,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>570</v>
@@ -1440,7 +1407,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>460</v>
@@ -1457,7 +1424,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>460</v>
@@ -1474,7 +1441,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>460</v>
@@ -1491,7 +1458,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>5110</v>
@@ -1508,7 +1475,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>5110</v>
@@ -1525,7 +1492,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>4360</v>
@@ -1542,7 +1509,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>4360</v>
@@ -1559,7 +1526,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>3890</v>
@@ -1576,7 +1543,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>500</v>
@@ -1593,7 +1560,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>500</v>
@@ -1610,7 +1577,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>2230</v>
@@ -1627,7 +1594,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>5337.5</v>
@@ -1644,7 +1611,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>312.5</v>
@@ -1661,7 +1628,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>10000</v>
@@ -1678,7 +1645,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>470</v>
@@ -1695,7 +1662,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>500</v>
@@ -1712,7 +1679,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>30</v>
@@ -1729,7 +1696,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>20</v>
@@ -1746,7 +1713,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>290</v>
@@ -1763,7 +1730,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>10</v>
@@ -1780,7 +1747,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>90</v>
@@ -1797,7 +1764,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>140</v>
@@ -1814,7 +1781,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>50</v>
@@ -1831,7 +1798,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>750</v>
@@ -1848,7 +1815,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>6140</v>
@@ -1882,7 +1849,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1892,21 +1859,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.99</v>
@@ -1920,7 +1887,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1934,7 +1901,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1948,7 +1915,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1962,7 +1929,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -1976,7 +1943,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -1990,7 +1957,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -2004,7 +1971,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -2018,7 +1985,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -2032,7 +1999,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -2046,7 +2013,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -2060,7 +2027,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -2074,7 +2041,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -2088,7 +2055,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -2102,7 +2069,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.99</v>
@@ -2116,7 +2083,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -2130,7 +2097,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -2144,7 +2111,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.99</v>
@@ -2158,7 +2125,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.99</v>
@@ -2172,7 +2139,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.99</v>
@@ -2186,7 +2153,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.99</v>
@@ -2200,7 +2167,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.99</v>
@@ -2214,7 +2181,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.99</v>
@@ -2228,7 +2195,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.99</v>
@@ -2242,7 +2209,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.99</v>
@@ -2256,7 +2223,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.99</v>
@@ -2270,7 +2237,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.99</v>
@@ -2284,7 +2251,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.99</v>
@@ -2298,7 +2265,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.99</v>
@@ -2312,7 +2279,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.99</v>
@@ -2326,7 +2293,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.99</v>
@@ -2340,7 +2307,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.99</v>
@@ -2354,7 +2321,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0.99</v>
@@ -2368,7 +2335,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0.99</v>
@@ -2382,7 +2349,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0.99</v>
@@ -2396,7 +2363,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.99</v>
@@ -2410,7 +2377,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0.99</v>
@@ -2424,7 +2391,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0.99</v>
@@ -2438,7 +2405,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0.99</v>
@@ -2452,7 +2419,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0.99</v>
@@ -2466,7 +2433,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0.99</v>
@@ -2480,7 +2447,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0.99</v>
@@ -2494,7 +2461,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0.99</v>
@@ -2508,7 +2475,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.99</v>
@@ -2522,7 +2489,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.99</v>
@@ -2536,7 +2503,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0.99</v>
@@ -2550,7 +2517,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.99</v>
@@ -2564,7 +2531,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.99</v>
@@ -2578,7 +2545,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.99</v>
@@ -2609,7 +2576,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A5:B5 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2619,21 +2586,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.99</v>
@@ -2647,7 +2614,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -2661,7 +2628,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.805792525521532</v>
@@ -2675,7 +2642,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -2689,7 +2656,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -2703,7 +2670,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.928124943041768</v>
@@ -2717,7 +2684,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -2731,7 +2698,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.980758075213057</v>
@@ -2745,7 +2712,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -2759,7 +2726,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -2773,7 +2740,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.850553653712464</v>
@@ -2787,7 +2754,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -2801,7 +2768,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -2815,7 +2782,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -2829,7 +2796,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.998343913039016</v>
@@ -2843,7 +2810,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.925834010503215</v>
@@ -2857,7 +2824,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.914831185724609</v>
@@ -2871,7 +2838,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.889197992439507</v>
@@ -2885,7 +2852,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.99</v>
@@ -2899,7 +2866,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.99</v>
@@ -2913,7 +2880,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.99</v>
@@ -2927,7 +2894,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.99</v>
@@ -2941,7 +2908,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.912928600623706</v>
@@ -2955,7 +2922,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.885298914584682</v>
@@ -2969,7 +2936,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.99</v>
@@ -2983,7 +2950,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.99</v>
@@ -2997,7 +2964,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.923333362502783</v>
@@ -3011,7 +2978,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.99</v>
@@ -3025,7 +2992,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.955157747123127</v>
@@ -3039,7 +3006,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.99</v>
@@ -3053,7 +3020,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.824707049979672</v>
@@ -3067,7 +3034,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.952987338158675</v>
@@ -3081,7 +3048,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0.873263888888888</v>
@@ -3095,7 +3062,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0.99</v>
@@ -3109,7 +3076,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0.99</v>
@@ -3123,7 +3090,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.99</v>
@@ -3137,7 +3104,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0.944333167529983</v>
@@ -3151,7 +3118,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0.99</v>
@@ -3165,7 +3132,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0.890748496539046</v>
@@ -3179,7 +3146,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0.738916363773338</v>
@@ -3193,7 +3160,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0.99</v>
@@ -3207,7 +3174,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0.99</v>
@@ -3221,7 +3188,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0.99</v>
@@ -3235,7 +3202,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.99</v>
@@ -3249,7 +3216,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.99</v>
@@ -3263,7 +3230,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0.99</v>
@@ -3277,7 +3244,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.99</v>
@@ -3291,7 +3258,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.99</v>
@@ -3305,7 +3272,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.99</v>
@@ -3319,7 +3286,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>0.99</v>
@@ -3333,7 +3300,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0.99</v>
@@ -3364,7 +3331,7 @@
   <dimension ref="A1:X50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="1" sqref="A5:B5 H17"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3378,90 +3345,90 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -3472,16 +3439,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -3492,16 +3459,16 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -3512,19 +3479,19 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>1</v>
@@ -3535,16 +3502,16 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -3555,16 +3522,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -3575,19 +3542,19 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -3598,19 +3565,19 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -3621,16 +3588,16 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -3641,16 +3608,16 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -3661,19 +3628,19 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>1</v>
@@ -3684,22 +3651,22 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>1</v>
@@ -3710,22 +3677,22 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>1</v>
@@ -3736,16 +3703,16 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>0</v>
@@ -3756,22 +3723,22 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>1</v>
@@ -3782,22 +3749,22 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>1</v>
@@ -3808,16 +3775,16 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>0</v>
@@ -3829,16 +3796,16 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>0</v>
@@ -3849,16 +3816,16 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>0</v>
@@ -3870,16 +3837,16 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>0</v>
@@ -3891,16 +3858,16 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>0</v>
@@ -3911,19 +3878,19 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>1</v>
@@ -3934,16 +3901,16 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>0</v>
@@ -3954,16 +3921,16 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>0</v>
@@ -3975,16 +3942,16 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="J26" s="0" t="n">
         <v>0</v>
@@ -3996,16 +3963,16 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>0</v>
@@ -4016,16 +3983,16 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J28" s="0" t="n">
         <v>0</v>
@@ -4036,19 +4003,19 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>1</v>
@@ -4059,16 +4026,16 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>0</v>
@@ -4079,16 +4046,16 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>0</v>
@@ -4099,16 +4066,16 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J32" s="0" t="n">
         <v>0</v>
@@ -4119,19 +4086,19 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="J33" s="0" t="n">
         <v>1</v>
@@ -4142,16 +4109,16 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>0</v>
@@ -4162,16 +4129,16 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>0</v>
@@ -4182,10 +4149,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>0</v>
@@ -4196,10 +4163,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="J37" s="0" t="n">
         <v>0</v>
@@ -4210,10 +4177,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>0</v>
@@ -4224,10 +4191,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>0</v>
@@ -4238,10 +4205,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>0</v>
@@ -4252,10 +4219,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="J41" s="0" t="n">
         <v>0</v>
@@ -4266,10 +4233,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>0</v>
@@ -4280,10 +4247,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>0</v>
@@ -4294,10 +4261,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>0</v>
@@ -4308,10 +4275,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>0</v>
@@ -4322,10 +4289,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="J46" s="0" t="n">
         <v>0</v>
@@ -4336,10 +4303,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="J47" s="0" t="n">
         <v>0</v>
@@ -4350,10 +4317,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="J48" s="0" t="n">
         <v>0</v>
@@ -4364,10 +4331,10 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>0</v>
@@ -4378,10 +4345,10 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>0</v>
@@ -4409,7 +4376,7 @@
   <dimension ref="A1:AZ50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="1" sqref="A5:B5 C21"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4419,165 +4386,165 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -4735,7 +4702,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -4893,7 +4860,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -5051,7 +5018,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -5209,7 +5176,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -5367,7 +5334,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -5525,7 +5492,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -5683,7 +5650,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -5841,7 +5808,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -5999,7 +5966,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -6157,7 +6124,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -6315,7 +6282,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -6473,7 +6440,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -6631,7 +6598,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -6789,7 +6756,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -6947,7 +6914,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -7105,7 +7072,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -7263,7 +7230,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -7421,7 +7388,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -7579,7 +7546,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -7737,7 +7704,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -7895,7 +7862,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -8053,7 +8020,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -8211,7 +8178,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -8369,7 +8336,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -8527,7 +8494,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -8685,7 +8652,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -8843,7 +8810,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -9001,7 +8968,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -9159,7 +9126,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -9317,7 +9284,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -9475,7 +9442,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -9633,7 +9600,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -9791,7 +9758,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -9949,7 +9916,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -10107,7 +10074,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -10265,7 +10232,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -10423,7 +10390,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -10581,7 +10548,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -10739,7 +10706,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -10897,7 +10864,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -11055,7 +11022,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -11213,7 +11180,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -11371,7 +11338,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -11529,7 +11496,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -11687,7 +11654,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -11845,7 +11812,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -12003,7 +11970,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -12161,7 +12128,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>-1</v>
@@ -12333,1056 +12300,745 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="3" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F43" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F49" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F50" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F51" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F52" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13402,718 +13058,569 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -14135,7 +13642,7 @@
   <dimension ref="A2:A51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14145,252 +13652,252 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -14412,7 +13919,7 @@
   <dimension ref="A2:A53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14422,262 +13929,262 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -14699,7 +14206,7 @@
   <dimension ref="A2:A53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14709,262 +14216,262 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -14986,7 +14493,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14996,21 +14503,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-26.7</v>
@@ -15021,7 +14528,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-17.67</v>
@@ -15032,7 +14539,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-5</v>
@@ -15043,7 +14550,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-13.28</v>
@@ -15054,7 +14561,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-5</v>
@@ -15065,7 +14572,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-15.53</v>
@@ -15076,7 +14583,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-18.47</v>
@@ -15087,7 +14594,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-19.27</v>
@@ -15098,7 +14605,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-124.6</v>
@@ -15107,12 +14614,12 @@
         <v>-107.6</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-72.7</v>
@@ -15121,12 +14628,12 @@
         <v>-60.3</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-3.75</v>
@@ -15137,7 +14644,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-4.55</v>
@@ -15148,7 +14655,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-3.75</v>
@@ -15159,7 +14666,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>-22.74</v>
@@ -15170,7 +14677,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>7.05</v>
@@ -15181,7 +14688,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>7.83</v>
@@ -15192,7 +14699,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>-2.7</v>
@@ -15203,7 +14710,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>-4.56</v>
@@ -15214,7 +14721,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>-5.89</v>
@@ -15225,7 +14732,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>-11.95</v>
@@ -15236,7 +14743,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>-2.02</v>
@@ -15247,7 +14754,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>-45.61</v>
@@ -15258,7 +14765,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>13.43</v>
@@ -15269,7 +14776,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>-7.92</v>
@@ -15280,7 +14787,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>-12.1</v>
@@ -15291,7 +14798,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>-45.36</v>
@@ -15302,7 +14809,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>-26</v>
@@ -15313,7 +14820,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>7.44</v>
@@ -15324,7 +14831,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>-18.92</v>
@@ -15335,7 +14842,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>3.88</v>
@@ -15346,7 +14853,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>-40.39</v>
@@ -15357,7 +14864,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>-28.05</v>
@@ -15368,7 +14875,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>-313.2</v>
@@ -15379,7 +14886,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>-18.1</v>
@@ -15390,7 +14897,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>-184.66</v>
@@ -15401,7 +14908,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>-64.84</v>
@@ -15412,7 +14919,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>-65.67</v>
@@ -15423,7 +14930,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>-5</v>
@@ -15434,7 +14941,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>-5</v>
@@ -15445,7 +14952,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>-5</v>
@@ -15456,7 +14963,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>-5</v>
@@ -15467,7 +14974,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>-5</v>
@@ -15478,7 +14985,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>-5</v>
@@ -15489,7 +14996,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>-5</v>
@@ -15500,7 +15007,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>-5</v>
@@ -15511,7 +15018,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>-5</v>
@@ -15522,7 +15029,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>-5</v>
@@ -15533,7 +15040,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>-5</v>
@@ -15544,7 +15051,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>-5</v>
@@ -15572,7 +15079,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15582,18 +15089,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1E-012</v>
@@ -15604,7 +15111,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -15615,7 +15122,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.000439345784032404</v>
@@ -15626,7 +15133,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -15637,7 +15144,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -15648,7 +15155,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>6.24506431401138E-005</v>
@@ -15659,7 +15166,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1E-012</v>
@@ -15670,7 +15177,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.000883222876526613</v>
@@ -15681,7 +15188,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1E-012</v>
@@ -15692,7 +15199,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1E-012</v>
@@ -15703,7 +15210,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2.46062514038848E-005</v>
@@ -15714,7 +15221,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1E-012</v>
@@ -15725,7 +15232,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -15736,7 +15243,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -15747,7 +15254,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>3.05924813144012E-006</v>
@@ -15758,7 +15265,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.000203370048921736</v>
@@ -15769,7 +15276,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>2.24717321858005E-006</v>
@@ -15780,7 +15287,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>5.09756677236924E-005</v>
@@ -15791,7 +15298,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>1E-012</v>
@@ -15802,7 +15309,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1E-012</v>
@@ -15813,7 +15320,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1E-012</v>
@@ -15824,7 +15331,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1E-012</v>
@@ -15835,7 +15342,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>5.71511530863543E-005</v>
@@ -15846,7 +15353,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>7.3421020529482E-006</v>
@@ -15857,7 +15364,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>1E-012</v>
@@ -15868,7 +15375,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>1E-012</v>
@@ -15879,7 +15386,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.000132829358941644</v>
@@ -15890,7 +15397,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>1E-012</v>
@@ -15901,7 +15408,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.000178644347391622</v>
@@ -15912,7 +15419,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1E-012</v>
@@ -15923,7 +15430,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.000169455106133193</v>
@@ -15934,7 +15441,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>1.27743320102831E-005</v>
@@ -15945,7 +15452,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>9.16927083333333E-005</v>
@@ -15956,7 +15463,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1E-012</v>
@@ -15967,7 +15474,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>1E-012</v>
@@ -15978,7 +15485,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>1E-012</v>
@@ -15989,7 +15496,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0.000321335591728953</v>
@@ -16000,7 +15507,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>1E-012</v>
@@ -16011,7 +15518,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0.000703656517402701</v>
@@ -16022,7 +15529,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0.000284280752609516</v>
@@ -16033,7 +15540,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>1E-012</v>
@@ -16044,7 +15551,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>1E-012</v>
@@ -16055,7 +15562,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>1E-012</v>
@@ -16066,7 +15573,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>1E-012</v>
@@ -16077,7 +15584,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>1E-012</v>
@@ -16088,7 +15595,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>1E-012</v>
@@ -16099,7 +15606,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>1E-012</v>
@@ -16110,7 +15617,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>1E-012</v>
@@ -16121,7 +15628,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>1E-012</v>
@@ -16132,7 +15639,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>1E-012</v>
@@ -16143,7 +15650,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>1E-012</v>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model5_dGs.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model5_dGs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -847,8 +847,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q8" activeCellId="0" sqref="Q8:Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -899,7 +899,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -972,7 +972,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I40" activeCellId="0" sqref="I40"/>
+      <selection pane="topLeft" activeCell="I40" activeCellId="1" sqref="Q8:Q9 I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1849,7 +1849,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="Q8:Q9 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2576,7 +2576,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="Q8:Q9 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3331,7 +3331,7 @@
   <dimension ref="A1:X50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="1" sqref="Q8:Q9 H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4376,7 +4376,7 @@
   <dimension ref="A1:AZ50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="1" sqref="Q8:Q9 C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12302,8 +12302,8 @@
   </sheetPr>
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="Q8:Q9 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13061,7 +13061,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="Q8:Q9 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13642,7 +13642,7 @@
   <dimension ref="A2:A51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="Q8:Q9 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13919,7 +13919,7 @@
   <dimension ref="A2:A53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="Q8:Q9 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14206,7 +14206,7 @@
   <dimension ref="A2:A53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="Q8:Q9 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14493,7 +14493,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="Q8:Q9 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15079,7 +15079,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="Q8:Q9 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model5_dGs.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model5_dGs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="222">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -392,9 +392,6 @@
   </si>
   <si>
     <t xml:space="preserve">balanced?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measured?</t>
   </si>
   <si>
     <t xml:space="preserve">reaction name</t>
@@ -802,7 +799,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -813,10 +810,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -847,8 +840,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q8" activeCellId="0" sqref="Q8:Q9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q8" activeCellId="0" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -972,7 +965,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I40" activeCellId="1" sqref="Q8:Q9 I40"/>
+      <selection pane="topLeft" activeCell="I40" activeCellId="0" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -982,19 +975,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1849,7 +1842,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="Q8:Q9 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1859,16 +1852,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2576,7 +2569,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="Q8:Q9 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2586,16 +2579,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3331,7 +3324,7 @@
   <dimension ref="A1:X50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="1" sqref="Q8:Q9 H17"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3345,76 +3338,76 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3422,13 +3415,13 @@
         <v>68</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -3442,13 +3435,13 @@
         <v>69</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>169</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>170</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -3462,7 +3455,7 @@
         <v>70</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>25</v>
@@ -3482,13 +3475,13 @@
         <v>71</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>172</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>173</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>56</v>
@@ -3505,7 +3498,7 @@
         <v>72</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>28</v>
@@ -3525,13 +3518,13 @@
         <v>73</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="D7" s="0" t="s">
         <v>175</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>176</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -3545,16 +3538,16 @@
         <v>74</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="0" t="s">
         <v>179</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>180</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -3568,16 +3561,16 @@
         <v>75</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="0" t="s">
         <v>179</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>180</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -3591,13 +3584,13 @@
         <v>76</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="D10" s="0" t="s">
         <v>182</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>183</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -3611,13 +3604,13 @@
         <v>77</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C11" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>184</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>185</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -3631,16 +3624,16 @@
         <v>78</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C12" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="H12" s="0" t="s">
         <v>187</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>188</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>1</v>
@@ -3654,19 +3647,19 @@
         <v>79</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>192</v>
-      </c>
       <c r="H13" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>1</v>
@@ -3680,19 +3673,19 @@
         <v>80</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>192</v>
-      </c>
       <c r="H14" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>1</v>
@@ -3706,7 +3699,7 @@
         <v>81</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>37</v>
@@ -3726,16 +3719,16 @@
         <v>82</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="0" t="s">
         <v>195</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>196</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>33</v>
@@ -3752,16 +3745,16 @@
         <v>83</v>
       </c>
       <c r="B17" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="0" t="s">
         <v>195</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>196</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>33</v>
@@ -3778,7 +3771,7 @@
         <v>84</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>39</v>
@@ -3792,14 +3785,14 @@
       <c r="K18" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W18" s="5"/>
+      <c r="W18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>85</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>39</v>
@@ -3819,13 +3812,13 @@
         <v>86</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C20" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="0" t="s">
         <v>197</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>198</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>0</v>
@@ -3833,20 +3826,20 @@
       <c r="K20" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W20" s="5"/>
+      <c r="W20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>87</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C21" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>199</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>200</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>0</v>
@@ -3854,20 +3847,20 @@
       <c r="K21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W21" s="5"/>
+      <c r="W21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>88</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C22" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>201</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>202</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>0</v>
@@ -3881,7 +3874,7 @@
         <v>89</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>27</v>
@@ -3904,13 +3897,13 @@
         <v>90</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>46</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>0</v>
@@ -3924,7 +3917,7 @@
         <v>91</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>55</v>
@@ -3938,20 +3931,20 @@
       <c r="K25" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W25" s="5"/>
+      <c r="W25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>92</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J26" s="0" t="n">
         <v>0</v>
@@ -3959,17 +3952,17 @@
       <c r="K26" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="W26" s="5"/>
+      <c r="W26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>93</v>
       </c>
       <c r="B27" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>207</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>208</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>48</v>
@@ -3986,7 +3979,7 @@
         <v>94</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>42</v>
@@ -4006,13 +3999,13 @@
         <v>95</v>
       </c>
       <c r="B29" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="0" t="s">
         <v>210</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>211</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>54</v>
@@ -4029,13 +4022,13 @@
         <v>96</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C30" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="D30" s="0" t="s">
         <v>212</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>213</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>0</v>
@@ -4049,7 +4042,7 @@
         <v>97</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>51</v>
@@ -4069,7 +4062,7 @@
         <v>98</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>52</v>
@@ -4089,16 +4082,16 @@
         <v>99</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C33" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="D33" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="I33" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>216</v>
       </c>
       <c r="J33" s="0" t="n">
         <v>1</v>
@@ -4112,10 +4105,10 @@
         <v>100</v>
       </c>
       <c r="B34" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C34" s="0" t="s">
         <v>217</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>218</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>56</v>
@@ -4132,13 +4125,13 @@
         <v>101</v>
       </c>
       <c r="B35" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="C35" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="D35" s="0" t="s">
         <v>220</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>221</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>0</v>
@@ -4152,7 +4145,7 @@
         <v>102</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>0</v>
@@ -4166,7 +4159,7 @@
         <v>103</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J37" s="0" t="n">
         <v>0</v>
@@ -4180,7 +4173,7 @@
         <v>104</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>0</v>
@@ -4194,7 +4187,7 @@
         <v>105</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>0</v>
@@ -4208,7 +4201,7 @@
         <v>106</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>0</v>
@@ -4222,7 +4215,7 @@
         <v>107</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J41" s="0" t="n">
         <v>0</v>
@@ -4236,7 +4229,7 @@
         <v>108</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>0</v>
@@ -4250,7 +4243,7 @@
         <v>109</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>0</v>
@@ -4264,7 +4257,7 @@
         <v>110</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>0</v>
@@ -4278,7 +4271,7 @@
         <v>111</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>0</v>
@@ -4292,7 +4285,7 @@
         <v>112</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J46" s="0" t="n">
         <v>0</v>
@@ -4306,7 +4299,7 @@
         <v>113</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J47" s="0" t="n">
         <v>0</v>
@@ -4320,7 +4313,7 @@
         <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J48" s="0" t="n">
         <v>0</v>
@@ -4334,7 +4327,7 @@
         <v>115</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>0</v>
@@ -4348,7 +4341,7 @@
         <v>116</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>0</v>
@@ -4376,7 +4369,7 @@
   <dimension ref="A1:AZ50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="1" sqref="Q8:Q9 C21"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12300,18 +12293,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="Q8:Q9 D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="3" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="3" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12324,9 +12317,6 @@
       <c r="C1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -12338,9 +12328,6 @@
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -12352,9 +12339,6 @@
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -12366,9 +12350,6 @@
       <c r="C4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -12380,9 +12361,6 @@
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -12394,9 +12372,6 @@
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -12408,9 +12383,6 @@
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -12422,9 +12394,6 @@
       <c r="C8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -12436,9 +12405,6 @@
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -12450,9 +12416,6 @@
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -12464,9 +12427,6 @@
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -12478,9 +12438,6 @@
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -12492,9 +12449,6 @@
       <c r="C13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -12506,9 +12460,6 @@
       <c r="C14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -12520,9 +12471,6 @@
       <c r="C15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -12534,9 +12482,6 @@
       <c r="C16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
@@ -12548,9 +12493,6 @@
       <c r="C17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -12562,9 +12504,6 @@
       <c r="C18" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -12576,9 +12515,6 @@
       <c r="C19" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -12590,9 +12526,6 @@
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -12604,9 +12537,6 @@
       <c r="C21" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -12618,9 +12548,6 @@
       <c r="C22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D22" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -12632,9 +12559,6 @@
       <c r="C23" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D23" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
@@ -12646,9 +12570,6 @@
       <c r="C24" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
@@ -12660,9 +12581,6 @@
       <c r="C25" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D25" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
@@ -12674,9 +12592,6 @@
       <c r="C26" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D26" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
@@ -12688,9 +12603,6 @@
       <c r="C27" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D27" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
@@ -12702,9 +12614,6 @@
       <c r="C28" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D28" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
@@ -12716,9 +12625,6 @@
       <c r="C29" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D29" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
@@ -12730,9 +12636,6 @@
       <c r="C30" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D30" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
@@ -12744,9 +12647,6 @@
       <c r="C31" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D31" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
@@ -12758,9 +12658,6 @@
       <c r="C32" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D32" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
@@ -12772,9 +12669,6 @@
       <c r="C33" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D33" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
@@ -12786,9 +12680,6 @@
       <c r="C34" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D34" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
@@ -12800,9 +12691,6 @@
       <c r="C35" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D35" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
@@ -12814,9 +12702,6 @@
       <c r="C36" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D36" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
@@ -12828,9 +12713,6 @@
       <c r="C37" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D37" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
@@ -12842,9 +12724,6 @@
       <c r="C38" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D38" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
@@ -12856,9 +12735,6 @@
       <c r="C39" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D39" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
@@ -12870,9 +12746,6 @@
       <c r="C40" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D40" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
@@ -12884,9 +12757,6 @@
       <c r="C41" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D41" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
@@ -12898,9 +12768,6 @@
       <c r="C42" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D42" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
@@ -12912,9 +12779,6 @@
       <c r="C43" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D43" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
@@ -12926,9 +12790,6 @@
       <c r="C44" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D44" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
@@ -12940,9 +12801,6 @@
       <c r="C45" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D45" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
@@ -12954,9 +12812,6 @@
       <c r="C46" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D46" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
@@ -12968,9 +12823,6 @@
       <c r="C47" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D47" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
@@ -12982,9 +12834,6 @@
       <c r="C48" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D48" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
@@ -12996,9 +12845,6 @@
       <c r="C49" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D49" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
@@ -13010,9 +12856,6 @@
       <c r="C50" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D50" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
@@ -13024,9 +12867,6 @@
       <c r="C51" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D51" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
@@ -13036,9 +12876,6 @@
         <v>67</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13061,7 +12898,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="Q8:Q9 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13075,13 +12912,13 @@
         <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13642,7 +13479,7 @@
   <dimension ref="A2:A51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="Q8:Q9 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13919,7 +13756,7 @@
   <dimension ref="A2:A53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="Q8:Q9 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13929,7 +13766,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14206,7 +14043,7 @@
   <dimension ref="A2:A53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="Q8:Q9 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14216,7 +14053,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14493,7 +14330,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="Q8:Q9 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14503,16 +14340,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14614,7 +14451,7 @@
         <v>-107.6</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14628,7 +14465,7 @@
         <v>-60.3</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15079,7 +14916,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="Q8:Q9 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15089,13 +14926,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model5_dGs.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model5_dGs.xlsx
@@ -5,22 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="stoic" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="mets" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="rxns" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="splitRatios" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="poolConst" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="thermo_ineq_constraints" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="thermoRxns" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="thermoMets" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="measRates" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="protData" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="metsData" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="kinetics1" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="poolConst" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="thermo_ineq_constraints" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="thermoRxns" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="thermoMets" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="measRates" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="protData" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="metsData" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="kinetics1" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="222">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -962,883 +961,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I40" activeCellId="0" sqref="I40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>630</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>630</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>630</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>630</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>4790</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>4790</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>4790</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>4790</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>360</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>360</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>360</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>360</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>5510</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>5510</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>585</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>585</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>292.5</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>292.5</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>292.5</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>292.5</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1170</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>1170</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>295</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>295</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>295</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>295</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>440</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>440</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>6110</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>6110</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>6110</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>6110</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>570</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>570</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>460</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>460</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>460</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>460</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>460</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>460</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>5110</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>5110</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>5110</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>5110</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>4360</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>4360</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>4360</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>4360</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>3890</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>3890</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>2230</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>223</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>2230</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>5337.5</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>533.75</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>5337.5</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>533.75</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>312.5</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>312.5</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>470</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>47</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>470</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>290</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>290</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="C46" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="C47" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="C49" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="B50" s="0" t="n">
-        <v>6140</v>
-      </c>
-      <c r="C50" s="0" t="n">
-        <v>611</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>6140</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <v>611</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -2561,7 +1683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3316,7 +2438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -12295,7 +11417,7 @@
   </sheetPr>
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -13476,9 +12598,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A51"/>
+  <dimension ref="A2:A53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -13489,252 +12611,262 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>116</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -14040,293 +13172,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A53"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -14908,7 +13753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -15505,4 +14350,881 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E50"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I40" activeCellId="0" sqref="I40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>630</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>630</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>630</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>630</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4790</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>4790</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4790</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>4790</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>360</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>360</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>360</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>360</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>5510</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>5510</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>585</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>585</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>292.5</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>292.5</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>292.5</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>292.5</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1170</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1170</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>295</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>295</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>295</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>295</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>6110</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>6110</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>6110</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>6110</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>570</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>570</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>460</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>460</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>460</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>460</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>460</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>460</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>5110</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>5110</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>5110</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>5110</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>4360</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>4360</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>4360</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>4360</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>3890</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>3890</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>2230</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>223</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>2230</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>5337.5</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>533.75</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>5337.5</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>533.75</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>312.5</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>312.5</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>470</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>470</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>290</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>290</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>6140</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>611</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>6140</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>611</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model5_dGs.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model5_dGs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="225">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
@@ -706,7 +715,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -736,6 +745,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u val="single"/>
@@ -794,11 +810,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -811,11 +827,19 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -839,8 +863,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q8" activeCellId="0" sqref="Q8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -886,49 +910,49 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -936,14 +960,28 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -964,7 +1002,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -974,21 +1012,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.99</v>
@@ -1002,7 +1040,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1016,7 +1054,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1030,7 +1068,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1044,7 +1082,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -1058,7 +1096,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -1072,7 +1110,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -1086,7 +1124,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -1100,7 +1138,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -1114,7 +1152,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -1128,7 +1166,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -1142,7 +1180,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -1156,7 +1194,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1170,7 +1208,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1184,7 +1222,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.99</v>
@@ -1198,7 +1236,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1212,7 +1250,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1226,7 +1264,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.99</v>
@@ -1240,7 +1278,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.99</v>
@@ -1254,7 +1292,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.99</v>
@@ -1268,7 +1306,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.99</v>
@@ -1282,7 +1320,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.99</v>
@@ -1296,7 +1334,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.99</v>
@@ -1310,7 +1348,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.99</v>
@@ -1324,7 +1362,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.99</v>
@@ -1338,7 +1376,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.99</v>
@@ -1352,7 +1390,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.99</v>
@@ -1366,7 +1404,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.99</v>
@@ -1380,7 +1418,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.99</v>
@@ -1394,7 +1432,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.99</v>
@@ -1408,7 +1446,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.99</v>
@@ -1422,7 +1460,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.99</v>
@@ -1436,7 +1474,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0.99</v>
@@ -1450,7 +1488,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0.99</v>
@@ -1464,7 +1502,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0.99</v>
@@ -1478,7 +1516,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.99</v>
@@ -1492,7 +1530,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0.99</v>
@@ -1506,7 +1544,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0.99</v>
@@ -1520,7 +1558,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0.99</v>
@@ -1534,7 +1572,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0.99</v>
@@ -1548,7 +1586,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0.99</v>
@@ -1562,7 +1600,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0.99</v>
@@ -1576,7 +1614,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0.99</v>
@@ -1590,7 +1628,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.99</v>
@@ -1604,7 +1642,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.99</v>
@@ -1618,7 +1656,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0.99</v>
@@ -1632,7 +1670,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.99</v>
@@ -1646,7 +1684,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.99</v>
@@ -1660,7 +1698,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.99</v>
@@ -1691,7 +1729,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1701,21 +1739,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.99</v>
@@ -1729,7 +1767,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1743,7 +1781,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.805792525521532</v>
@@ -1757,7 +1795,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1771,7 +1809,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -1785,7 +1823,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.928124943041768</v>
@@ -1799,7 +1837,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -1813,7 +1851,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.980758075213057</v>
@@ -1827,7 +1865,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -1841,7 +1879,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -1855,7 +1893,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.850553653712464</v>
@@ -1869,7 +1907,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -1883,7 +1921,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1897,7 +1935,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1911,7 +1949,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.998343913039016</v>
@@ -1925,7 +1963,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.925834010503215</v>
@@ -1939,7 +1977,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.914831185724609</v>
@@ -1953,7 +1991,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.889197992439507</v>
@@ -1967,7 +2005,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.99</v>
@@ -1981,7 +2019,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.99</v>
@@ -1995,7 +2033,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.99</v>
@@ -2009,7 +2047,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.99</v>
@@ -2023,7 +2061,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.912928600623706</v>
@@ -2037,7 +2075,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.885298914584682</v>
@@ -2051,7 +2089,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.99</v>
@@ -2065,7 +2103,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.99</v>
@@ -2079,7 +2117,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.923333362502783</v>
@@ -2093,7 +2131,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.99</v>
@@ -2107,7 +2145,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.955157747123127</v>
@@ -2121,7 +2159,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.99</v>
@@ -2135,7 +2173,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.824707049979672</v>
@@ -2149,7 +2187,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.952987338158675</v>
@@ -2163,7 +2201,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0.873263888888888</v>
@@ -2177,7 +2215,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0.99</v>
@@ -2191,7 +2229,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0.99</v>
@@ -2205,7 +2243,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.99</v>
@@ -2219,7 +2257,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0.944333167529983</v>
@@ -2233,7 +2271,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0.99</v>
@@ -2247,7 +2285,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0.890748496539046</v>
@@ -2261,7 +2299,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0.738916363773338</v>
@@ -2275,7 +2313,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0.99</v>
@@ -2289,7 +2327,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0.99</v>
@@ -2303,7 +2341,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0.99</v>
@@ -2317,7 +2355,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.99</v>
@@ -2331,7 +2369,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.99</v>
@@ -2345,7 +2383,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0.99</v>
@@ -2359,7 +2397,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.99</v>
@@ -2373,7 +2411,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.99</v>
@@ -2387,7 +2425,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.99</v>
@@ -2401,7 +2439,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>0.99</v>
@@ -2415,7 +2453,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0.99</v>
@@ -2446,7 +2484,7 @@
   <dimension ref="A1:X50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="1" sqref="A6:B7 H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2460,90 +2498,90 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -2554,16 +2592,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -2574,16 +2612,16 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -2594,19 +2632,19 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>1</v>
@@ -2617,16 +2655,16 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -2637,16 +2675,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -2657,19 +2695,19 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -2680,19 +2718,19 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -2703,16 +2741,16 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -2723,16 +2761,16 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -2743,19 +2781,19 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>1</v>
@@ -2766,22 +2804,22 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D13" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="H13" s="0" t="s">
         <v>190</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>187</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>1</v>
@@ -2792,22 +2830,22 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D14" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="H14" s="0" t="s">
         <v>190</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>187</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>1</v>
@@ -2818,16 +2856,16 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>0</v>
@@ -2838,22 +2876,22 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>1</v>
@@ -2864,22 +2902,22 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>1</v>
@@ -2890,16 +2928,16 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>0</v>
@@ -2907,20 +2945,20 @@
       <c r="K18" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W18" s="4"/>
+      <c r="W18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>0</v>
@@ -2931,16 +2969,16 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>0</v>
@@ -2948,20 +2986,20 @@
       <c r="K20" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W20" s="4"/>
+      <c r="W20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>0</v>
@@ -2969,20 +3007,20 @@
       <c r="K21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W21" s="4"/>
+      <c r="W21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>0</v>
@@ -2993,19 +3031,19 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>1</v>
@@ -3016,16 +3054,16 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>0</v>
@@ -3036,16 +3074,16 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>0</v>
@@ -3053,20 +3091,20 @@
       <c r="K25" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W25" s="4"/>
+      <c r="W25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="J26" s="0" t="n">
         <v>0</v>
@@ -3074,20 +3112,20 @@
       <c r="K26" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="W26" s="4"/>
+      <c r="W26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>0</v>
@@ -3098,16 +3136,16 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J28" s="0" t="n">
         <v>0</v>
@@ -3118,19 +3156,19 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>1</v>
@@ -3141,16 +3179,16 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>0</v>
@@ -3161,16 +3199,16 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>0</v>
@@ -3181,16 +3219,16 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J32" s="0" t="n">
         <v>0</v>
@@ -3201,19 +3239,19 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>218</v>
       </c>
       <c r="J33" s="0" t="n">
         <v>1</v>
@@ -3224,16 +3262,16 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>0</v>
@@ -3244,16 +3282,16 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>0</v>
@@ -3264,10 +3302,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>0</v>
@@ -3278,10 +3316,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J37" s="0" t="n">
         <v>0</v>
@@ -3292,10 +3330,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>0</v>
@@ -3306,10 +3344,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>0</v>
@@ -3320,10 +3358,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>0</v>
@@ -3334,10 +3372,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J41" s="0" t="n">
         <v>0</v>
@@ -3348,10 +3386,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>0</v>
@@ -3362,10 +3400,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>0</v>
@@ -3376,10 +3414,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>0</v>
@@ -3390,10 +3428,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>0</v>
@@ -3404,10 +3442,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J46" s="0" t="n">
         <v>0</v>
@@ -3418,10 +3456,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J47" s="0" t="n">
         <v>0</v>
@@ -3432,10 +3470,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J48" s="0" t="n">
         <v>0</v>
@@ -3446,10 +3484,10 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>0</v>
@@ -3460,10 +3498,10 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>0</v>
@@ -3491,7 +3529,7 @@
   <dimension ref="A1:AZ50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="1" sqref="A6:B7 C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3501,165 +3539,165 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -3817,7 +3855,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -3975,7 +4013,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -4133,7 +4171,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -4291,7 +4329,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -4449,7 +4487,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -4607,7 +4645,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -4765,7 +4803,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -4923,7 +4961,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -5081,7 +5119,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -5239,7 +5277,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -5397,7 +5435,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -5555,7 +5593,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -5713,7 +5751,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -5871,7 +5909,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -6029,7 +6067,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -6187,7 +6225,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -6345,7 +6383,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -6503,7 +6541,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -6661,7 +6699,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -6819,7 +6857,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -6977,7 +7015,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -7135,7 +7173,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -7293,7 +7331,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -7451,7 +7489,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -7609,7 +7647,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -7767,7 +7805,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -7925,7 +7963,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -8083,7 +8121,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -8241,7 +8279,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -8399,7 +8437,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -8557,7 +8595,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -8715,7 +8753,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -8873,7 +8911,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -9031,7 +9069,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -9189,7 +9227,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -9347,7 +9385,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -9505,7 +9543,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -9663,7 +9701,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -9821,7 +9859,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -9979,7 +10017,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -10137,7 +10175,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -10295,7 +10333,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -10453,7 +10491,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -10611,7 +10649,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -10769,7 +10807,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -10927,7 +10965,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -11085,7 +11123,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -11243,7 +11281,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>-1</v>
@@ -11418,7 +11456,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11431,21 +11469,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -11453,10 +11491,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
@@ -11464,10 +11502,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -11475,10 +11513,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -11486,10 +11524,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -11497,10 +11535,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -11508,10 +11546,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -11519,10 +11557,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -11530,10 +11568,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -11541,10 +11579,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -11552,10 +11590,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -11563,10 +11601,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
@@ -11574,10 +11612,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
@@ -11585,10 +11623,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -11596,10 +11634,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
@@ -11607,10 +11645,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
@@ -11618,10 +11656,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
@@ -11629,10 +11667,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1</v>
@@ -11640,10 +11678,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -11651,10 +11689,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -11662,10 +11700,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1</v>
@@ -11673,10 +11711,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
@@ -11684,10 +11722,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
@@ -11695,10 +11733,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
@@ -11706,10 +11744,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1</v>
@@ -11717,10 +11755,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1</v>
@@ -11728,10 +11766,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1</v>
@@ -11739,10 +11777,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>1</v>
@@ -11750,10 +11788,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1</v>
@@ -11761,10 +11799,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1</v>
@@ -11772,10 +11810,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>1</v>
@@ -11783,10 +11821,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>1</v>
@@ -11794,10 +11832,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>1</v>
@@ -11805,10 +11843,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>1</v>
@@ -11816,10 +11854,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>1</v>
@@ -11827,10 +11865,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>1</v>
@@ -11838,10 +11876,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>1</v>
@@ -11849,10 +11887,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>1</v>
@@ -11860,10 +11898,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>1</v>
@@ -11871,10 +11909,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>1</v>
@@ -11882,10 +11920,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
@@ -11893,10 +11931,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0</v>
@@ -11904,10 +11942,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
@@ -11915,10 +11953,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>0</v>
@@ -11926,10 +11964,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>0</v>
@@ -11937,10 +11975,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>0</v>
@@ -11948,10 +11986,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>0</v>
@@ -11959,10 +11997,10 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>0</v>
@@ -11970,10 +12008,10 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>0</v>
@@ -11981,10 +12019,10 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>0</v>
@@ -11992,10 +12030,10 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>0</v>
@@ -12020,7 +12058,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12031,24 +12069,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -12056,10 +12094,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -12067,10 +12105,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -12078,10 +12116,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -12089,10 +12127,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -12100,10 +12138,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -12111,10 +12149,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -12122,10 +12160,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -12133,10 +12171,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -12144,10 +12182,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -12155,10 +12193,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -12166,10 +12204,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -12177,10 +12215,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -12188,10 +12226,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -12199,10 +12237,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -12210,10 +12248,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -12221,10 +12259,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -12232,10 +12270,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -12243,10 +12281,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -12254,10 +12292,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -12265,10 +12303,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
@@ -12276,10 +12314,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
@@ -12287,10 +12325,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0</v>
@@ -12298,10 +12336,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
@@ -12309,10 +12347,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0</v>
@@ -12320,10 +12358,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0</v>
@@ -12331,10 +12369,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0</v>
@@ -12342,10 +12380,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0</v>
@@ -12353,10 +12391,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0</v>
@@ -12364,10 +12402,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0</v>
@@ -12375,10 +12413,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0</v>
@@ -12386,10 +12424,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>0</v>
@@ -12397,10 +12435,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0</v>
@@ -12408,10 +12446,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>0</v>
@@ -12419,10 +12457,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>0</v>
@@ -12430,10 +12468,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>0</v>
@@ -12441,10 +12479,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>0</v>
@@ -12452,10 +12490,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>0</v>
@@ -12463,10 +12501,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>0</v>
@@ -12474,10 +12512,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
@@ -12485,10 +12523,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
@@ -12496,10 +12534,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0</v>
@@ -12507,10 +12545,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
@@ -12518,10 +12556,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>0</v>
@@ -12529,10 +12567,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>0</v>
@@ -12540,10 +12578,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>0</v>
@@ -12551,10 +12589,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>0</v>
@@ -12562,10 +12600,10 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>0</v>
@@ -12573,10 +12611,10 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>0</v>
@@ -12600,8 +12638,8 @@
   </sheetPr>
   <dimension ref="A2:A53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12611,262 +12649,262 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -12888,7 +12926,7 @@
   <dimension ref="A2:A53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12898,262 +12936,262 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -13175,7 +13213,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13185,21 +13223,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-26.7</v>
@@ -13210,7 +13248,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-17.67</v>
@@ -13221,7 +13259,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-5</v>
@@ -13232,7 +13270,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-13.28</v>
@@ -13243,7 +13281,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-5</v>
@@ -13254,7 +13292,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-15.53</v>
@@ -13265,7 +13303,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-18.47</v>
@@ -13276,7 +13314,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-19.27</v>
@@ -13287,7 +13325,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-124.6</v>
@@ -13296,12 +13334,12 @@
         <v>-107.6</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-72.7</v>
@@ -13310,12 +13348,12 @@
         <v>-60.3</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-3.75</v>
@@ -13326,7 +13364,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-4.55</v>
@@ -13337,7 +13375,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-3.75</v>
@@ -13348,7 +13386,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>-22.74</v>
@@ -13359,7 +13397,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>7.05</v>
@@ -13370,7 +13408,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>7.83</v>
@@ -13381,7 +13419,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>-2.7</v>
@@ -13392,7 +13430,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>-4.56</v>
@@ -13403,7 +13441,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>-5.89</v>
@@ -13414,7 +13452,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>-11.95</v>
@@ -13425,7 +13463,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>-2.02</v>
@@ -13436,7 +13474,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>-45.61</v>
@@ -13447,7 +13485,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>13.43</v>
@@ -13458,7 +13496,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>-7.92</v>
@@ -13469,7 +13507,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>-12.1</v>
@@ -13480,7 +13518,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>-45.36</v>
@@ -13491,7 +13529,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>-26</v>
@@ -13502,7 +13540,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>7.44</v>
@@ -13513,7 +13551,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>-18.92</v>
@@ -13524,7 +13562,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>3.88</v>
@@ -13535,7 +13573,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>-40.39</v>
@@ -13546,7 +13584,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>-28.05</v>
@@ -13557,7 +13595,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>-313.2</v>
@@ -13568,7 +13606,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>-18.1</v>
@@ -13579,7 +13617,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>-184.66</v>
@@ -13590,7 +13628,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>-64.84</v>
@@ -13601,7 +13639,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>-65.67</v>
@@ -13612,7 +13650,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>-5</v>
@@ -13623,7 +13661,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>-5</v>
@@ -13634,7 +13672,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>-5</v>
@@ -13645,7 +13683,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>-5</v>
@@ -13656,7 +13694,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>-5</v>
@@ -13667,7 +13705,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>-5</v>
@@ -13678,7 +13716,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>-5</v>
@@ -13689,7 +13727,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>-5</v>
@@ -13700,7 +13738,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>-5</v>
@@ -13711,7 +13749,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>-5</v>
@@ -13722,7 +13760,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>-5</v>
@@ -13733,7 +13771,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>-5</v>
@@ -13761,7 +13799,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13771,18 +13809,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1E-012</v>
@@ -13793,7 +13831,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -13804,7 +13842,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.000439345784032404</v>
@@ -13815,7 +13853,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -13826,7 +13864,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -13837,7 +13875,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>6.24506431401138E-005</v>
@@ -13848,7 +13886,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1E-012</v>
@@ -13859,7 +13897,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.000883222876526613</v>
@@ -13870,7 +13908,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1E-012</v>
@@ -13881,7 +13919,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1E-012</v>
@@ -13892,7 +13930,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2.46062514038848E-005</v>
@@ -13903,7 +13941,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1E-012</v>
@@ -13914,7 +13952,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -13925,7 +13963,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -13936,7 +13974,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>3.05924813144012E-006</v>
@@ -13947,7 +13985,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.000203370048921736</v>
@@ -13958,7 +13996,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>2.24717321858005E-006</v>
@@ -13969,7 +14007,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>5.09756677236924E-005</v>
@@ -13980,7 +14018,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>1E-012</v>
@@ -13991,7 +14029,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1E-012</v>
@@ -14002,7 +14040,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1E-012</v>
@@ -14013,7 +14051,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1E-012</v>
@@ -14024,7 +14062,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>5.71511530863543E-005</v>
@@ -14035,7 +14073,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>7.3421020529482E-006</v>
@@ -14046,7 +14084,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>1E-012</v>
@@ -14057,7 +14095,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>1E-012</v>
@@ -14068,7 +14106,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.000132829358941644</v>
@@ -14079,7 +14117,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>1E-012</v>
@@ -14090,7 +14128,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.000178644347391622</v>
@@ -14101,7 +14139,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1E-012</v>
@@ -14112,7 +14150,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.000169455106133193</v>
@@ -14123,7 +14161,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>1.27743320102831E-005</v>
@@ -14134,7 +14172,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>9.16927083333333E-005</v>
@@ -14145,7 +14183,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1E-012</v>
@@ -14156,7 +14194,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>1E-012</v>
@@ -14167,7 +14205,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>1E-012</v>
@@ -14178,7 +14216,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0.000321335591728953</v>
@@ -14189,7 +14227,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>1E-012</v>
@@ -14200,7 +14238,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0.000703656517402701</v>
@@ -14211,7 +14249,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0.000284280752609516</v>
@@ -14222,7 +14260,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>1E-012</v>
@@ -14233,7 +14271,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>1E-012</v>
@@ -14244,7 +14282,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>1E-012</v>
@@ -14255,7 +14293,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>1E-012</v>
@@ -14266,7 +14304,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>1E-012</v>
@@ -14277,7 +14315,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>1E-012</v>
@@ -14288,7 +14326,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>1E-012</v>
@@ -14299,7 +14337,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>1E-012</v>
@@ -14310,7 +14348,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>1E-012</v>
@@ -14321,7 +14359,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>1E-012</v>
@@ -14332,7 +14370,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>1E-012</v>
@@ -14360,7 +14398,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I40" activeCellId="0" sqref="I40"/>
+      <selection pane="topLeft" activeCell="I40" activeCellId="1" sqref="A6:B7 I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14370,24 +14408,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>630</v>
@@ -14404,7 +14442,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>630</v>
@@ -14421,7 +14459,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>4790</v>
@@ -14438,7 +14476,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>4790</v>
@@ -14455,7 +14493,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>720</v>
@@ -14472,7 +14510,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>720</v>
@@ -14489,7 +14527,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>360</v>
@@ -14506,7 +14544,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>360</v>
@@ -14523,7 +14561,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>5510</v>
@@ -14540,7 +14578,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>720</v>
@@ -14557,7 +14595,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>585</v>
@@ -14574,7 +14612,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>292.5</v>
@@ -14591,7 +14629,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>292.5</v>
@@ -14608,7 +14646,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1170</v>
@@ -14625,7 +14663,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>295</v>
@@ -14642,7 +14680,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>295</v>
@@ -14659,7 +14697,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>440</v>
@@ -14676,7 +14714,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>150</v>
@@ -14693,7 +14731,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>150</v>
@@ -14710,7 +14748,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>10</v>
@@ -14727,7 +14765,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>150</v>
@@ -14744,7 +14782,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>6110</v>
@@ -14761,7 +14799,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>6110</v>
@@ -14778,7 +14816,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>570</v>
@@ -14795,7 +14833,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>460</v>
@@ -14812,7 +14850,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>460</v>
@@ -14829,7 +14867,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>460</v>
@@ -14846,7 +14884,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>5110</v>
@@ -14863,7 +14901,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>5110</v>
@@ -14880,7 +14918,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>4360</v>
@@ -14897,7 +14935,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>4360</v>
@@ -14914,7 +14952,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>3890</v>
@@ -14931,7 +14969,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>500</v>
@@ -14948,7 +14986,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>500</v>
@@ -14965,7 +15003,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>2230</v>
@@ -14982,7 +15020,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>5337.5</v>
@@ -14999,7 +15037,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>312.5</v>
@@ -15016,7 +15054,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>10000</v>
@@ -15033,7 +15071,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>470</v>
@@ -15050,7 +15088,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>500</v>
@@ -15067,7 +15105,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>30</v>
@@ -15084,7 +15122,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>20</v>
@@ -15101,7 +15139,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>290</v>
@@ -15118,7 +15156,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>10</v>
@@ -15135,7 +15173,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>90</v>
@@ -15152,7 +15190,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>140</v>
@@ -15169,7 +15207,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>50</v>
@@ -15186,7 +15224,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>750</v>
@@ -15203,7 +15241,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>6140</v>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model5_dGs.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model5_dGs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -715,7 +715,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -745,13 +745,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u val="single"/>
@@ -810,11 +803,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -827,10 +820,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -839,7 +828,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -863,8 +852,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6:B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -911,18 +900,18 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1002,7 +991,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1729,7 +1718,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2484,7 +2473,7 @@
   <dimension ref="A1:X50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="1" sqref="A6:B7 H17"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2580,7 +2569,7 @@
       <c r="C2" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>169</v>
       </c>
       <c r="J2" s="0" t="n">
@@ -2700,10 +2689,10 @@
       <c r="B8" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>181</v>
       </c>
       <c r="E8" s="0" t="s">
@@ -2723,10 +2712,10 @@
       <c r="B9" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>181</v>
       </c>
       <c r="E9" s="0" t="s">
@@ -2809,10 +2798,10 @@
       <c r="B13" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>193</v>
       </c>
       <c r="E13" s="0" t="s">
@@ -2835,10 +2824,10 @@
       <c r="B14" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>193</v>
       </c>
       <c r="E14" s="0" t="s">
@@ -2881,10 +2870,10 @@
       <c r="B16" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>197</v>
       </c>
       <c r="E16" s="0" t="s">
@@ -2907,10 +2896,10 @@
       <c r="B17" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>197</v>
       </c>
       <c r="E17" s="0" t="s">
@@ -2945,7 +2934,7 @@
       <c r="K18" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W18" s="6"/>
+      <c r="W18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -2986,7 +2975,7 @@
       <c r="K20" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W20" s="6"/>
+      <c r="W20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -3007,7 +2996,7 @@
       <c r="K21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W21" s="6"/>
+      <c r="W21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -3091,7 +3080,7 @@
       <c r="K25" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W25" s="6"/>
+      <c r="W25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
@@ -3112,7 +3101,7 @@
       <c r="K26" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="W26" s="6"/>
+      <c r="W26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
@@ -3161,7 +3150,7 @@
       <c r="B29" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>212</v>
       </c>
       <c r="D29" s="0" t="s">
@@ -3250,7 +3239,7 @@
       <c r="D33" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" s="4" t="s">
         <v>218</v>
       </c>
       <c r="J33" s="0" t="n">
@@ -3529,7 +3518,7 @@
   <dimension ref="A1:AZ50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="1" sqref="A6:B7 C21"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11456,7 +11445,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12058,7 +12047,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12639,7 +12628,7 @@
   <dimension ref="A2:A53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12926,7 +12915,7 @@
   <dimension ref="A2:A53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13212,8 +13201,8 @@
   </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13262,7 +13251,7 @@
         <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-5</v>
+        <v>-70</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>5</v>
@@ -13799,7 +13788,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14398,7 +14387,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I40" activeCellId="1" sqref="A6:B7 I40"/>
+      <selection pane="topLeft" activeCell="I40" activeCellId="0" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
